--- a/Regions/база демо 26-28.12.14 - Дима+регионы.xlsx
+++ b/Regions/база демо 26-28.12.14 - Дима+регионы.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="538">
   <si>
     <t>178.66.31.184</t>
   </si>
@@ -753,10 +753,10 @@
     <t>2014-12-26T02:38:34</t>
   </si>
   <si>
-    <t>11:10</t>
-  </si>
-  <si>
-    <t>28.12.14</t>
+    <t>23:10:50</t>
+  </si>
+  <si>
+    <t>28.12.2014</t>
   </si>
   <si>
     <t/>
@@ -765,307 +765,871 @@
     <t>-2</t>
   </si>
   <si>
-    <t>11:02</t>
-  </si>
-  <si>
-    <t>10:33</t>
-  </si>
-  <si>
-    <t>БА</t>
-  </si>
-  <si>
-    <t>10:11</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>08:42</t>
-  </si>
-  <si>
-    <t>07:46</t>
-  </si>
-  <si>
-    <t>07:02</t>
-  </si>
-  <si>
-    <t>06:19</t>
-  </si>
-  <si>
-    <t>05:31</t>
+    <t>89313572798</t>
+  </si>
+  <si>
+    <t>CallHistory</t>
+  </si>
+  <si>
+    <t>23:02:48</t>
+  </si>
+  <si>
+    <t>89521021929</t>
+  </si>
+  <si>
+    <t>[[10:33]]</t>
+  </si>
+  <si>
+    <t>89161756097</t>
+  </si>
+  <si>
+    <t>22:11:44</t>
+  </si>
+  <si>
+    <t>89522065645</t>
+  </si>
+  <si>
+    <t>21:00:13</t>
+  </si>
+  <si>
+    <t>89858062923</t>
+  </si>
+  <si>
+    <t>20:42:19</t>
+  </si>
+  <si>
+    <t>89067848250</t>
+  </si>
+  <si>
+    <t>19:46:48</t>
+  </si>
+  <si>
+    <t>89118113854</t>
+  </si>
+  <si>
+    <t>Ищем пострадавших от КРЕСЛАНДИЯ (они же KINDERGARDEN, они же ИП ...</t>
+  </si>
+  <si>
+    <t>19:02:04</t>
+  </si>
+  <si>
+    <t>89854577123</t>
+  </si>
+  <si>
+    <t>Visit my blogs. Perverted Dreams Nuttin Butt Cum...</t>
+  </si>
+  <si>
+    <t>18:19:08</t>
+  </si>
+  <si>
+    <t>89684225349</t>
+  </si>
+  <si>
+    <t>17:31:19</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>04:54</t>
-  </si>
-  <si>
-    <t>04:46</t>
-  </si>
-  <si>
-    <t>04:35</t>
-  </si>
-  <si>
-    <t>04:21</t>
-  </si>
-  <si>
-    <t>04:02</t>
-  </si>
-  <si>
-    <t>03:15</t>
-  </si>
-  <si>
-    <t>02:43</t>
-  </si>
-  <si>
-    <t>02:41</t>
+    <t>89829135133</t>
+  </si>
+  <si>
+    <t>16:54:47</t>
+  </si>
+  <si>
+    <t>89201288032</t>
+  </si>
+  <si>
+    <t>16:46:37</t>
+  </si>
+  <si>
+    <t>89501992997</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью «АльфаСтрой»</t>
+  </si>
+  <si>
+    <t>АльфаСтрой |Екатеринбург, | - ООО, ремонтная компания</t>
+  </si>
+  <si>
+    <t>АльфаСтрой, ремонтная компания - Справочник организаций</t>
+  </si>
+  <si>
+    <t>АльфаСтрой, ООО, ремонтная компания - НАША СПРАВКА в ...</t>
+  </si>
+  <si>
+    <t>продам ginza ms100 - обсуждение в форумах на E1.ru</t>
+  </si>
+  <si>
+    <t>[[04:35]]</t>
+  </si>
+  <si>
+    <t>89049859948</t>
+  </si>
+  <si>
+    <t>16:21:14</t>
+  </si>
+  <si>
+    <t>89600498390</t>
+  </si>
+  <si>
+    <t>16:02:05</t>
+  </si>
+  <si>
+    <t>89179097121</t>
+  </si>
+  <si>
+    <t>15:15:22</t>
+  </si>
+  <si>
+    <t>89286166154</t>
+  </si>
+  <si>
+    <t>14:43:33</t>
+  </si>
+  <si>
+    <t>89154573275</t>
+  </si>
+  <si>
+    <t>14:43:04</t>
+  </si>
+  <si>
+    <t>89052878517</t>
+  </si>
+  <si>
+    <t>14:41:04</t>
   </si>
   <si>
     <t>-1</t>
   </si>
   <si>
-    <t>01:56</t>
-  </si>
-  <si>
-    <t>01:30</t>
-  </si>
-  <si>
-    <t>01:19</t>
-  </si>
-  <si>
-    <t>01:14</t>
-  </si>
-  <si>
-    <t>12:54</t>
-  </si>
-  <si>
-    <t>12:29</t>
-  </si>
-  <si>
-    <t>11:53</t>
+    <t>89967216887</t>
+  </si>
+  <si>
+    <t>[[01:56]]</t>
+  </si>
+  <si>
+    <t>89169503325</t>
+  </si>
+  <si>
+    <t>13:30:13</t>
+  </si>
+  <si>
+    <t>89816928984</t>
+  </si>
+  <si>
+    <t>13:19:35</t>
+  </si>
+  <si>
+    <t>89167818930</t>
+  </si>
+  <si>
+    <t>13:14:41</t>
+  </si>
+  <si>
+    <t>89625440101</t>
+  </si>
+  <si>
+    <t>12:54:47</t>
+  </si>
+  <si>
+    <t>89372060400</t>
+  </si>
+  <si>
+    <t>Untitled — A wine kind of night and this is our...</t>
+  </si>
+  <si>
+    <t>Окна и Балконы</t>
+  </si>
+  <si>
+    <t>89372096415 - Keyworddensitycheckertool.net</t>
+  </si>
+  <si>
+    <t>12:29:06</t>
+  </si>
+  <si>
+    <t>89067921636</t>
+  </si>
+  <si>
+    <t>ALWAYS BE A FIGHTER! - dana8fighteer-with-swag</t>
+  </si>
+  <si>
+    <t>(мобильных) телефонов 8-906-792 - Информация по номерам ...</t>
+  </si>
+  <si>
+    <t>11:53:40</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>11:49</t>
-  </si>
-  <si>
-    <t>11:33</t>
-  </si>
-  <si>
-    <t>11:07</t>
-  </si>
-  <si>
-    <t>10:52</t>
-  </si>
-  <si>
-    <t>10:12</t>
-  </si>
-  <si>
-    <t>10:03</t>
+    <t>89082214152</t>
+  </si>
+  <si>
+    <t>dimm_sem Dima on Instagram</t>
+  </si>
+  <si>
+    <t>[[11:49]]</t>
+  </si>
+  <si>
+    <t>89019112020</t>
+  </si>
+  <si>
+    <t>11:33:11</t>
+  </si>
+  <si>
+    <t>89299216912</t>
+  </si>
+  <si>
+    <t>11:07:12</t>
+  </si>
+  <si>
+    <t>89124811048</t>
+  </si>
+  <si>
+    <t>Адвокатская палата Пермского края: адвокат - Попов Н.М.</t>
+  </si>
+  <si>
+    <t>Адвокатская палата Пермского края</t>
+  </si>
+  <si>
+    <t>10:52:03</t>
+  </si>
+  <si>
+    <t>89851944161</t>
+  </si>
+  <si>
+    <t>10:12:13</t>
+  </si>
+  <si>
+    <t>89376452000</t>
+  </si>
+  <si>
+    <t>Работа кардинатором AVON | Заказ косметики AVON и работа в ...</t>
+  </si>
+  <si>
+    <t>Важная и полезная информация для представителей! - ВКонтакте</t>
+  </si>
+  <si>
+    <t>10:03:38</t>
   </si>
   <si>
     <t>Оренбургская область</t>
   </si>
   <si>
-    <t>09:57</t>
+    <t>89878804917</t>
+  </si>
+  <si>
+    <t>Недвижимость в Кувандыке (Оренбургская область, Россия) - 9 ...</t>
+  </si>
+  <si>
+    <t>1-комн. кв.. Цена 550 000 руб.. Купить недвижимость в Кувандыке</t>
+  </si>
+  <si>
+    <t>09:57:26</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>09:54</t>
-  </si>
-  <si>
-    <t>08:40</t>
+    <t>89148706371</t>
+  </si>
+  <si>
+    <t>09:54:52</t>
+  </si>
+  <si>
+    <t>89518110101</t>
+  </si>
+  <si>
+    <t>Куплю Nikon 24-85 мм [Архив] - Челябинский фотолюбитель</t>
+  </si>
+  <si>
+    <t>Очки Vans Spicoli 4 Shades. Челябинск</t>
+  </si>
+  <si>
+    <t>Наушники c микрофоном и управлением для Iphone | Аудио и ...</t>
+  </si>
+  <si>
+    <t>горнолыжные женские варежки и мужские перчатки. - Форумы</t>
+  </si>
+  <si>
+    <t>Одежда, обувь, аксессуары - Челябинский сайт объявлений</t>
+  </si>
+  <si>
+    <t>Потеряли очки Giro (красные) 31.01.13 | Горнолыжный курорт ...</t>
+  </si>
+  <si>
+    <t>08:40:49</t>
   </si>
   <si>
     <t>Ивановская область</t>
   </si>
   <si>
-    <t>08:32</t>
-  </si>
-  <si>
-    <t>08:02</t>
+    <t>89806910133</t>
+  </si>
+  <si>
+    <t>Lost — partism: I hate it when you really need to talk...</t>
+  </si>
+  <si>
+    <t>08:32:20</t>
+  </si>
+  <si>
+    <t>89505960300</t>
+  </si>
+  <si>
+    <t>08:02:47</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>06:14</t>
-  </si>
-  <si>
-    <t>06:06</t>
-  </si>
-  <si>
-    <t>05:39</t>
-  </si>
-  <si>
-    <t>11:25</t>
-  </si>
-  <si>
-    <t>27.12.14</t>
-  </si>
-  <si>
-    <t>11:24</t>
-  </si>
-  <si>
-    <t>09:13</t>
-  </si>
-  <si>
-    <t>07:47</t>
-  </si>
-  <si>
-    <t>07:13</t>
-  </si>
-  <si>
-    <t>06:49</t>
-  </si>
-  <si>
-    <t>06:40</t>
-  </si>
-  <si>
-    <t>06:03</t>
-  </si>
-  <si>
-    <t>05:55</t>
+    <t>89841719970</t>
+  </si>
+  <si>
+    <t>Юридические услуги - Юридические - Объявления - г. Хабаровск ...</t>
+  </si>
+  <si>
+    <t>сдам комнату в общежитии - Аренда Квартир, Недвижимость ...</t>
+  </si>
+  <si>
+    <t>06:14:05</t>
+  </si>
+  <si>
+    <t>89222495225</t>
+  </si>
+  <si>
+    <t>[[06:06]]</t>
+  </si>
+  <si>
+    <t>89222492552</t>
+  </si>
+  <si>
+    <t>05:39:24</t>
+  </si>
+  <si>
+    <t>89044364010</t>
+  </si>
+  <si>
+    <t>04:21:38</t>
+  </si>
+  <si>
+    <t>89526288034</t>
+  </si>
+  <si>
+    <t>23:25:36</t>
+  </si>
+  <si>
+    <t>27.12.2014</t>
+  </si>
+  <si>
+    <t>89153582540</t>
+  </si>
+  <si>
+    <t>Продажа подержанного (б/у) автомобиля Renault Megane ...</t>
+  </si>
+  <si>
+    <t>[[11:24]]</t>
+  </si>
+  <si>
+    <t>89253582540</t>
+  </si>
+  <si>
+    <t>21:13:58</t>
+  </si>
+  <si>
+    <t>89276991042</t>
+  </si>
+  <si>
+    <t>Стена | ВКонтакте</t>
+  </si>
+  <si>
+    <t>услуги по фасовке кремообразных и гелеобразных продуктов ...</t>
+  </si>
+  <si>
+    <t>Работа в Самаре. "Территория успеха". : Группа ... - Одноклассники</t>
+  </si>
+  <si>
+    <t>скачать - Бюллетень вакансий</t>
+  </si>
+  <si>
+    <t>19:47:30</t>
+  </si>
+  <si>
+    <t>89651548234</t>
+  </si>
+  <si>
+    <t>19:13:59</t>
+  </si>
+  <si>
+    <t>89206601996</t>
+  </si>
+  <si>
+    <t>literally no</t>
+  </si>
+  <si>
+    <t>18:49:40</t>
+  </si>
+  <si>
+    <t>89174039373</t>
+  </si>
+  <si>
+    <t>18:40:53</t>
+  </si>
+  <si>
+    <t>89278043636</t>
+  </si>
+  <si>
+    <t>18:03:01</t>
+  </si>
+  <si>
+    <t>89515584608</t>
+  </si>
+  <si>
+    <t>17:55:49</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>05:28</t>
-  </si>
-  <si>
-    <t>05:19</t>
-  </si>
-  <si>
-    <t>05:18</t>
-  </si>
-  <si>
-    <t>05:03</t>
-  </si>
-  <si>
-    <t>04:58</t>
-  </si>
-  <si>
-    <t>03:40</t>
-  </si>
-  <si>
-    <t>03:21</t>
-  </si>
-  <si>
-    <t>03:18</t>
-  </si>
-  <si>
-    <t>03:17</t>
-  </si>
-  <si>
-    <t>01:20</t>
-  </si>
-  <si>
-    <t>12:40</t>
-  </si>
-  <si>
-    <t>12:32</t>
-  </si>
-  <si>
-    <t>11:44</t>
-  </si>
-  <si>
-    <t>11:40</t>
-  </si>
-  <si>
-    <t>11:08</t>
-  </si>
-  <si>
-    <t>08:27</t>
-  </si>
-  <si>
-    <t>26.12.14</t>
-  </si>
-  <si>
-    <t>08:18</t>
-  </si>
-  <si>
-    <t>08:16</t>
-  </si>
-  <si>
-    <t>08:12</t>
-  </si>
-  <si>
-    <t>08:11</t>
-  </si>
-  <si>
-    <t>08:10</t>
-  </si>
-  <si>
-    <t>08:08</t>
-  </si>
-  <si>
-    <t>07:35</t>
-  </si>
-  <si>
-    <t>07:31</t>
-  </si>
-  <si>
-    <t>07:28</t>
-  </si>
-  <si>
-    <t>07:27</t>
-  </si>
-  <si>
-    <t>07:20</t>
-  </si>
-  <si>
-    <t>07:15</t>
-  </si>
-  <si>
-    <t>07:12</t>
-  </si>
-  <si>
-    <t>07:07</t>
-  </si>
-  <si>
-    <t>06:48</t>
-  </si>
-  <si>
-    <t>06:42</t>
+    <t>89139027928</t>
+  </si>
+  <si>
+    <t>Объявление на ZOTAN.ru - Элитная пятикомнатная квартира</t>
+  </si>
+  <si>
+    <t>Объявления от Анатолий Павлович - 24zona.Ru</t>
+  </si>
+  <si>
+    <t>ЗАО "СИБЭЛЕКТРОМОТОР" - Эмитенты - Прайм</t>
+  </si>
+  <si>
+    <t>17:28:16</t>
+  </si>
+  <si>
+    <t>89100228088</t>
+  </si>
+  <si>
+    <t>17:19:42</t>
+  </si>
+  <si>
+    <t>89179307070</t>
+  </si>
+  <si>
+    <t>17:19:04</t>
+  </si>
+  <si>
+    <t>89025129300</t>
+  </si>
+  <si>
+    <t>Вакансия менеджер по работе с клиентами</t>
+  </si>
+  <si>
+    <t>Вопрос к опытным компьютерщикам! - Drom.ru</t>
+  </si>
+  <si>
+    <t>[[05:18]]</t>
+  </si>
+  <si>
+    <t>89202603359</t>
+  </si>
+  <si>
+    <t>Диски литые M-стиль R16 + резина Фиренза (Япония) - Newauto46</t>
+  </si>
+  <si>
+    <t>17:03:12</t>
+  </si>
+  <si>
+    <t>89212471833</t>
+  </si>
+  <si>
+    <t>16:58:48</t>
+  </si>
+  <si>
+    <t>89233550269</t>
+  </si>
+  <si>
+    <t>16:54:43</t>
+  </si>
+  <si>
+    <t>89684225350</t>
+  </si>
+  <si>
+    <t>Информация о номере сотового телефона: 89684225350 ( + ...</t>
+  </si>
+  <si>
+    <t>16:35:34</t>
+  </si>
+  <si>
+    <t>89684225976</t>
+  </si>
+  <si>
+    <t>15:40:09</t>
+  </si>
+  <si>
+    <t>89166121985</t>
+  </si>
+  <si>
+    <t>15:21:36</t>
+  </si>
+  <si>
+    <t>89374152028</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Монолит" - В Пензе</t>
+  </si>
+  <si>
+    <t>89374152 info facebook - About chocolatebar</t>
+  </si>
+  <si>
+    <t>Монолит, ООО, агентство недвижимости-Каталог недвижимости</t>
+  </si>
+  <si>
+    <t>Отправить сообщение - Каталог недвижимости</t>
+  </si>
+  <si>
+    <t>Монолит, ООО, агентство недвижимости - НАША СПРАВКА в ...</t>
+  </si>
+  <si>
+    <t>Сообщить другу - Каталог недвижимости</t>
+  </si>
+  <si>
+    <t>15:18:10</t>
+  </si>
+  <si>
+    <t>89222199622</t>
+  </si>
+  <si>
+    <t>15:17:01</t>
+  </si>
+  <si>
+    <t>89041442300</t>
+  </si>
+  <si>
+    <t>Регистрация на первый официальный турнир по FIFA 2015 в ...</t>
+  </si>
+  <si>
+    <t>14:43:35</t>
+  </si>
+  <si>
+    <t>89117983164</t>
+  </si>
+  <si>
+    <t>13:20:13</t>
+  </si>
+  <si>
+    <t>89220604646</t>
+  </si>
+  <si>
+    <t>резина 255/55 R18 [Архив] - Форум г. Салехард и Ямало ...</t>
+  </si>
+  <si>
+    <t>12:40:16</t>
+  </si>
+  <si>
+    <t>89021666942</t>
+  </si>
+  <si>
+    <t>12:32:08</t>
+  </si>
+  <si>
+    <t>89645282228</t>
+  </si>
+  <si>
+    <t>Закрытие сезона 2012. | ВКонтакте</t>
+  </si>
+  <si>
+    <t>sailing-forum.org - Archived Reverse Whois Lookup from the Database</t>
+  </si>
+  <si>
+    <t>sailingforum.org - Archived Reverse Whois Lookup from the Database</t>
+  </si>
+  <si>
+    <t>11:44:33</t>
+  </si>
+  <si>
+    <t>89034677650</t>
+  </si>
+  <si>
+    <t>Just a poor boy - Tumblr</t>
+  </si>
+  <si>
+    <t>11:40:11</t>
+  </si>
+  <si>
+    <t>89678567913</t>
+  </si>
+  <si>
+    <t>[[11:10]]</t>
+  </si>
+  <si>
+    <t>89229473982</t>
+  </si>
+  <si>
+    <t>Pride and prejudice. - vintage-prejudice - Tumblr</t>
+  </si>
+  <si>
+    <t>11:08:11</t>
+  </si>
+  <si>
+    <t>89037958814</t>
+  </si>
+  <si>
+    <t>08:27:05</t>
+  </si>
+  <si>
+    <t>26.12.2014</t>
+  </si>
+  <si>
+    <t>89260006177</t>
+  </si>
+  <si>
+    <t>Копирайт или рерайт. (туризм, event) : нужен автор и писатель ...</t>
+  </si>
+  <si>
+    <t>Воентур (админ) : административная поддержка, фриланс, FL.ru</t>
+  </si>
+  <si>
+    <t>Воентур (админ) - Free-lancing.ru</t>
+  </si>
+  <si>
+    <t>08:18:44</t>
+  </si>
+  <si>
+    <t>89282683132</t>
+  </si>
+  <si>
+    <t>PRO-fashion информация о фотостудии (Краснодар)</t>
+  </si>
+  <si>
+    <t>PRO-fashion - Фотографы Краснодара</t>
+  </si>
+  <si>
+    <t>08:16:53</t>
+  </si>
+  <si>
+    <t>89134206883</t>
+  </si>
+  <si>
+    <t>[[08:12]]</t>
+  </si>
+  <si>
+    <t>89626196786</t>
+  </si>
+  <si>
+    <t>08:11:49</t>
+  </si>
+  <si>
+    <t>89261904492</t>
+  </si>
+  <si>
+    <t>08:10:11</t>
+  </si>
+  <si>
+    <t>89882216500</t>
+  </si>
+  <si>
+    <t>08:08:27</t>
+  </si>
+  <si>
+    <t>89099953535</t>
+  </si>
+  <si>
+    <t>Опаренкова Ирина вся информация о человеке - Жители России</t>
+  </si>
+  <si>
+    <t>08:08:18</t>
+  </si>
+  <si>
+    <t>89639660934</t>
+  </si>
+  <si>
+    <t>[[08:08]]</t>
+  </si>
+  <si>
+    <t>89630137105</t>
+  </si>
+  <si>
+    <t>07:35:26</t>
+  </si>
+  <si>
+    <t>89036593584</t>
+  </si>
+  <si>
+    <t>07:31:58</t>
+  </si>
+  <si>
+    <t>89093252567</t>
+  </si>
+  <si>
+    <t>Щепинова Дина вся информация о человеке - Жители России</t>
+  </si>
+  <si>
+    <t>Юридицкая Дина вся информация о человеке - Жители России</t>
+  </si>
+  <si>
+    <t>07:28:57</t>
+  </si>
+  <si>
+    <t>89124605084</t>
+  </si>
+  <si>
+    <t>Stana Katic is the center of my Universe!! — loverofcastle: video</t>
+  </si>
+  <si>
+    <t>07:27:42</t>
+  </si>
+  <si>
+    <t>89093060555</t>
+  </si>
+  <si>
+    <t>СУМО КАЗАНЬ | ВКонтакте</t>
+  </si>
+  <si>
+    <t>Обмен номера телефона на ВИП - КАРТУ "ВКИНО" - ЗДЕСЬ ...</t>
+  </si>
+  <si>
+    <t>Записи сообщества - Стена | ВКонтакте</t>
+  </si>
+  <si>
+    <t>byaki buki (@buki_byaki) | Twitter</t>
+  </si>
+  <si>
+    <t>07:20:26</t>
+  </si>
+  <si>
+    <t>89030035953</t>
+  </si>
+  <si>
+    <t>07:15:36</t>
+  </si>
+  <si>
+    <t>89168884010</t>
+  </si>
+  <si>
+    <t>07:12:44</t>
+  </si>
+  <si>
+    <t>89176791356</t>
+  </si>
+  <si>
+    <t>07:07:25</t>
+  </si>
+  <si>
+    <t>89611600511</t>
+  </si>
+  <si>
+    <t>07:02:41</t>
+  </si>
+  <si>
+    <t>89680780832</t>
+  </si>
+  <si>
+    <t>06:48:42</t>
+  </si>
+  <si>
+    <t>89272017065</t>
+  </si>
+  <si>
+    <t>06:42:11</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>06:36</t>
-  </si>
-  <si>
-    <t>06:33</t>
-  </si>
-  <si>
-    <t>06:25</t>
-  </si>
-  <si>
-    <t>06:21</t>
-  </si>
-  <si>
-    <t>05:51</t>
-  </si>
-  <si>
-    <t>05:40</t>
-  </si>
-  <si>
-    <t>03:47</t>
-  </si>
-  <si>
-    <t>03:31</t>
-  </si>
-  <si>
-    <t>03:04</t>
-  </si>
-  <si>
-    <t>02:38</t>
+    <t>89146494818</t>
+  </si>
+  <si>
+    <t>mina.</t>
+  </si>
+  <si>
+    <t>06:40:46</t>
+  </si>
+  <si>
+    <t>89186598197</t>
+  </si>
+  <si>
+    <t>06:36:44</t>
+  </si>
+  <si>
+    <t>89090903010</t>
+  </si>
+  <si>
+    <t>Lexus LX, 2010 - члб.рф</t>
+  </si>
+  <si>
+    <t>06:36:19</t>
+  </si>
+  <si>
+    <t>89099328206</t>
+  </si>
+  <si>
+    <t>06:33:47</t>
+  </si>
+  <si>
+    <t>89375636779</t>
+  </si>
+  <si>
+    <t>Not Punk Rock Just Cool</t>
+  </si>
+  <si>
+    <t>06:25:05</t>
+  </si>
+  <si>
+    <t>89134839002</t>
+  </si>
+  <si>
+    <t>06:21:00</t>
+  </si>
+  <si>
+    <t>89613708997</t>
+  </si>
+  <si>
+    <t>05:51:59</t>
+  </si>
+  <si>
+    <t>89147032333</t>
+  </si>
+  <si>
+    <t>[[05:40]]</t>
+  </si>
+  <si>
+    <t>89143219814</t>
+  </si>
+  <si>
+    <t>03:47:42</t>
+  </si>
+  <si>
+    <t>89232176754</t>
+  </si>
+  <si>
+    <t>Потерялся кот! - Sayanogorsk.info</t>
+  </si>
+  <si>
+    <t>03:31:51</t>
+  </si>
+  <si>
+    <t>89059769458</t>
+  </si>
+  <si>
+    <t>03:04:28</t>
+  </si>
+  <si>
+    <t>89140149101</t>
+  </si>
+  <si>
+    <t>02:38:34</t>
+  </si>
+  <si>
+    <t>89144295343</t>
+  </si>
+  <si>
+    <t>Дмитрий Александрович : Одноклассники</t>
+  </si>
+  <si>
+    <t>Гайрат Симашев(Абаев) : Одноклассники</t>
+  </si>
+  <si>
+    <t>Артур Берхеев : Одноклассники</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1637,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,6 +1665,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1139,7 +1709,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1490,11 +2060,18 @@
       <c r="J1" t="s">
         <v>247</v>
       </c>
-      <c r="K1" t="s">
-        <v>247</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" t="s" s="7">
+        <v>249</v>
+      </c>
+      <c r="M1" t="s">
         <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1508,7 +2085,7 @@
         <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" t="s">
@@ -1526,11 +2103,18 @@
       <c r="J2" t="s">
         <v>247</v>
       </c>
-      <c r="K2" t="s">
-        <v>247</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" t="s" s="7">
+        <v>252</v>
+      </c>
+      <c r="M2" t="s">
         <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1544,7 +2128,7 @@
         <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" t="s">
@@ -1562,11 +2146,15 @@
       <c r="J3" t="s">
         <v>247</v>
       </c>
-      <c r="K3" t="s">
-        <v>251</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" t="s" s="7">
+        <v>254</v>
+      </c>
+      <c r="M3" t="s">
         <v>9</v>
+      </c>
+      <c r="O3" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1580,7 +2168,7 @@
         <v>246</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
@@ -1598,11 +2186,18 @@
       <c r="J4" t="s">
         <v>247</v>
       </c>
-      <c r="K4" t="s">
-        <v>247</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" t="s" s="7">
+        <v>256</v>
+      </c>
+      <c r="M4" t="s">
         <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1616,7 +2211,7 @@
         <v>246</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E5" s="4">
         <v>957</v>
@@ -1636,11 +2231,18 @@
       <c r="J5" t="s">
         <v>247</v>
       </c>
-      <c r="K5" t="s">
-        <v>247</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" t="s" s="7">
+        <v>258</v>
+      </c>
+      <c r="M5" t="s">
         <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1654,7 +2256,7 @@
         <v>246</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" t="s">
@@ -1672,11 +2274,15 @@
       <c r="J6" t="s">
         <v>247</v>
       </c>
-      <c r="K6" t="s">
-        <v>247</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" t="s" s="7">
+        <v>260</v>
+      </c>
+      <c r="M6" t="s">
         <v>16</v>
+      </c>
+      <c r="O6" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1690,7 +2296,7 @@
         <v>246</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" t="s">
@@ -1708,11 +2314,21 @@
       <c r="J7" t="s">
         <v>247</v>
       </c>
-      <c r="K7" t="s">
-        <v>247</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" t="s" s="7">
+        <v>262</v>
+      </c>
+      <c r="M7" t="s">
         <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P7" t="s" s="7">
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1726,7 +2342,7 @@
         <v>246</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" t="s">
@@ -1744,11 +2360,18 @@
       <c r="J8" t="s">
         <v>247</v>
       </c>
-      <c r="K8" t="s">
-        <v>247</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" t="s" s="7">
+        <v>265</v>
+      </c>
+      <c r="M8" t="s">
         <v>20</v>
+      </c>
+      <c r="O8" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P8" t="s" s="7">
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1762,7 +2385,7 @@
         <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" t="s">
@@ -1780,11 +2403,18 @@
       <c r="J9" t="s">
         <v>247</v>
       </c>
-      <c r="K9" t="s">
-        <v>247</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" t="s" s="7">
+        <v>268</v>
+      </c>
+      <c r="M9" t="s">
         <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1798,14 +2428,14 @@
         <v>246</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H10" t="s">
         <v>247</v>
@@ -1816,11 +2446,18 @@
       <c r="J10" t="s">
         <v>247</v>
       </c>
-      <c r="K10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="K10" s="1"/>
+      <c r="L10" t="s" s="7">
+        <v>271</v>
+      </c>
+      <c r="M10" t="s">
         <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1834,7 +2471,7 @@
         <v>246</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E11" s="4">
         <v>1358</v>
@@ -1854,11 +2491,18 @@
       <c r="J11" t="s">
         <v>247</v>
       </c>
-      <c r="K11" t="s">
-        <v>247</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" t="s" s="7">
+        <v>273</v>
+      </c>
+      <c r="M11" t="s">
         <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1872,14 +2516,14 @@
         <v>246</v>
       </c>
       <c r="D12" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" t="s">
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
         <v>247</v>
@@ -1890,11 +2534,33 @@
       <c r="J12" t="s">
         <v>247</v>
       </c>
-      <c r="K12" t="s">
-        <v>247</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="K12" s="1"/>
+      <c r="L12" t="s" s="7">
+        <v>275</v>
+      </c>
+      <c r="M12" t="s">
         <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P12" t="s" s="7">
+        <v>276</v>
+      </c>
+      <c r="Q12" t="s" s="7">
+        <v>277</v>
+      </c>
+      <c r="R12" t="s" s="7">
+        <v>278</v>
+      </c>
+      <c r="S12" t="s" s="7">
+        <v>279</v>
+      </c>
+      <c r="T12" t="s" s="7">
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1908,7 +2574,7 @@
         <v>246</v>
       </c>
       <c r="D13" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="E13" s="4">
         <v>1358</v>
@@ -1917,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H13" t="s">
         <v>247</v>
@@ -1928,11 +2594,15 @@
       <c r="J13" t="s">
         <v>247</v>
       </c>
-      <c r="K13" t="s">
-        <v>251</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="K13" s="1"/>
+      <c r="L13" t="s" s="7">
+        <v>282</v>
+      </c>
+      <c r="M13" t="s">
         <v>36</v>
+      </c>
+      <c r="O13" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1946,7 +2616,7 @@
         <v>246</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E14" s="4">
         <v>88889</v>
@@ -1966,11 +2636,15 @@
       <c r="J14" t="s">
         <v>247</v>
       </c>
-      <c r="K14" t="s">
-        <v>247</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="K14" s="1"/>
+      <c r="L14" t="s" s="7">
+        <v>284</v>
+      </c>
+      <c r="M14" t="s">
         <v>37</v>
+      </c>
+      <c r="O14" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1984,7 +2658,7 @@
         <v>246</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" t="s">
@@ -2002,11 +2676,18 @@
       <c r="J15" t="s">
         <v>247</v>
       </c>
-      <c r="K15" t="s">
-        <v>247</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="K15" s="1"/>
+      <c r="L15" t="s" s="7">
+        <v>286</v>
+      </c>
+      <c r="M15" t="s">
         <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2020,7 +2701,7 @@
         <v>246</v>
       </c>
       <c r="D16" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="E16" s="4">
         <v>1210</v>
@@ -2040,11 +2721,18 @@
       <c r="J16" t="s">
         <v>247</v>
       </c>
-      <c r="K16" t="s">
-        <v>247</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="K16" s="1"/>
+      <c r="L16" t="s" s="7">
+        <v>288</v>
+      </c>
+      <c r="M16" t="s">
         <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2058,7 +2746,7 @@
         <v>246</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" t="s">
@@ -2076,11 +2764,15 @@
       <c r="J17" t="s">
         <v>247</v>
       </c>
-      <c r="K17" t="s">
-        <v>247</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="K17" s="1"/>
+      <c r="L17" t="s" s="7">
+        <v>290</v>
+      </c>
+      <c r="M17" t="s">
         <v>47</v>
+      </c>
+      <c r="O17" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2094,7 +2786,7 @@
         <v>246</v>
       </c>
       <c r="D18" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" t="s">
@@ -2112,11 +2804,18 @@
       <c r="J18" t="s">
         <v>247</v>
       </c>
-      <c r="K18" t="s">
-        <v>247</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="K18" s="1"/>
+      <c r="L18" t="s" s="7">
+        <v>292</v>
+      </c>
+      <c r="M18" t="s">
         <v>49</v>
+      </c>
+      <c r="N18" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2130,14 +2829,14 @@
         <v>246</v>
       </c>
       <c r="D19" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" t="s">
         <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="H19" t="s">
         <v>247</v>
@@ -2148,11 +2847,18 @@
       <c r="J19" t="s">
         <v>247</v>
       </c>
-      <c r="K19" t="s">
-        <v>247</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="K19" s="1"/>
+      <c r="L19" t="s" s="7">
+        <v>295</v>
+      </c>
+      <c r="M19" t="s">
         <v>52</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2166,7 +2872,7 @@
         <v>246</v>
       </c>
       <c r="D20" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" t="s">
@@ -2184,11 +2890,15 @@
       <c r="J20" t="s">
         <v>247</v>
       </c>
-      <c r="K20" t="s">
-        <v>251</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="K20" s="1"/>
+      <c r="L20" t="s" s="7">
+        <v>297</v>
+      </c>
+      <c r="M20" t="s">
         <v>55</v>
+      </c>
+      <c r="O20" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2202,7 +2912,7 @@
         <v>246</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" t="s">
@@ -2220,11 +2930,18 @@
       <c r="J21" t="s">
         <v>247</v>
       </c>
-      <c r="K21" t="s">
-        <v>247</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="K21" s="1"/>
+      <c r="L21" t="s" s="7">
+        <v>299</v>
+      </c>
+      <c r="M21" t="s">
         <v>56</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2238,7 +2955,7 @@
         <v>246</v>
       </c>
       <c r="D22" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="E22" s="4">
         <v>1358</v>
@@ -2258,11 +2975,18 @@
       <c r="J22" t="s">
         <v>247</v>
       </c>
-      <c r="K22" t="s">
-        <v>247</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="K22" s="1"/>
+      <c r="L22" t="s" s="7">
+        <v>301</v>
+      </c>
+      <c r="M22" t="s">
         <v>58</v>
+      </c>
+      <c r="N22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2276,14 +3000,14 @@
         <v>246</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" t="s">
         <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H23" t="s">
         <v>247</v>
@@ -2294,11 +3018,18 @@
       <c r="J23" t="s">
         <v>247</v>
       </c>
-      <c r="K23" t="s">
-        <v>247</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="K23" s="1"/>
+      <c r="L23" t="s" s="7">
+        <v>303</v>
+      </c>
+      <c r="M23" t="s">
         <v>60</v>
+      </c>
+      <c r="N23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2312,14 +3043,14 @@
         <v>246</v>
       </c>
       <c r="D24" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" t="s">
         <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="H24" t="s">
         <v>247</v>
@@ -2330,11 +3061,27 @@
       <c r="J24" t="s">
         <v>247</v>
       </c>
-      <c r="K24" t="s">
-        <v>247</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="K24" s="1"/>
+      <c r="L24" t="s" s="7">
+        <v>305</v>
+      </c>
+      <c r="M24" t="s">
         <v>64</v>
+      </c>
+      <c r="N24" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P24" t="s" s="7">
+        <v>306</v>
+      </c>
+      <c r="Q24" t="s" s="7">
+        <v>307</v>
+      </c>
+      <c r="R24" t="s" s="7">
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2348,7 +3095,7 @@
         <v>246</v>
       </c>
       <c r="D25" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" t="s">
@@ -2366,11 +3113,21 @@
       <c r="J25" t="s">
         <v>247</v>
       </c>
-      <c r="K25" t="s">
-        <v>247</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="K25" s="1"/>
+      <c r="L25" t="s" s="7">
+        <v>310</v>
+      </c>
+      <c r="M25" t="s">
         <v>66</v>
+      </c>
+      <c r="O25" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P25" t="s" s="7">
+        <v>311</v>
+      </c>
+      <c r="Q25" t="s" s="7">
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2384,7 +3141,7 @@
         <v>246</v>
       </c>
       <c r="D26" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="E26" s="4">
         <v>1210</v>
@@ -2393,7 +3150,7 @@
         <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="H26" t="s">
         <v>247</v>
@@ -2404,11 +3161,21 @@
       <c r="J26" t="s">
         <v>247</v>
       </c>
-      <c r="K26" t="s">
-        <v>247</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="K26" s="1"/>
+      <c r="L26" t="s" s="7">
+        <v>315</v>
+      </c>
+      <c r="M26" t="s">
         <v>68</v>
+      </c>
+      <c r="N26" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P26" t="s" s="7">
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2422,7 +3189,7 @@
         <v>246</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="E27" s="4">
         <v>1210</v>
@@ -2431,7 +3198,7 @@
         <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="H27" t="s">
         <v>247</v>
@@ -2442,11 +3209,15 @@
       <c r="J27" t="s">
         <v>247</v>
       </c>
-      <c r="K27" t="s">
-        <v>251</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="K27" s="1"/>
+      <c r="L27" t="s" s="7">
+        <v>318</v>
+      </c>
+      <c r="M27" t="s">
         <v>68</v>
+      </c>
+      <c r="O27" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2460,7 +3231,7 @@
         <v>246</v>
       </c>
       <c r="D28" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" t="s">
@@ -2478,11 +3249,18 @@
       <c r="J28" t="s">
         <v>247</v>
       </c>
-      <c r="K28" t="s">
-        <v>247</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="K28" s="1"/>
+      <c r="L28" t="s" s="7">
+        <v>320</v>
+      </c>
+      <c r="M28" t="s">
         <v>71</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2496,7 +3274,7 @@
         <v>246</v>
       </c>
       <c r="D29" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="E29" s="4">
         <v>1210</v>
@@ -2505,7 +3283,7 @@
         <v>75</v>
       </c>
       <c r="G29" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H29" t="s">
         <v>247</v>
@@ -2516,11 +3294,24 @@
       <c r="J29" t="s">
         <v>247</v>
       </c>
-      <c r="K29" t="s">
-        <v>247</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="K29" s="1"/>
+      <c r="L29" t="s" s="7">
+        <v>322</v>
+      </c>
+      <c r="M29" t="s">
         <v>73</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P29" t="s" s="7">
+        <v>323</v>
+      </c>
+      <c r="Q29" t="s" s="7">
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2534,7 +3325,7 @@
         <v>246</v>
       </c>
       <c r="D30" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="E30" s="4">
         <v>957</v>
@@ -2554,11 +3345,18 @@
       <c r="J30" t="s">
         <v>247</v>
       </c>
-      <c r="K30" t="s">
-        <v>247</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="K30" s="1"/>
+      <c r="L30" t="s" s="7">
+        <v>326</v>
+      </c>
+      <c r="M30" t="s">
         <v>76</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2572,7 +3370,7 @@
         <v>246</v>
       </c>
       <c r="D31" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="E31" s="4">
         <v>88889</v>
@@ -2581,7 +3379,7 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="H31" t="s">
         <v>247</v>
@@ -2592,11 +3390,24 @@
       <c r="J31" t="s">
         <v>247</v>
       </c>
-      <c r="K31" t="s">
-        <v>247</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="K31" s="1"/>
+      <c r="L31" t="s" s="7">
+        <v>328</v>
+      </c>
+      <c r="M31" t="s">
         <v>78</v>
+      </c>
+      <c r="N31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P31" t="s" s="7">
+        <v>329</v>
+      </c>
+      <c r="Q31" t="s" s="7">
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2610,16 +3421,16 @@
         <v>246</v>
       </c>
       <c r="D32" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="E32" s="4">
         <v>88887</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="G32" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H32" t="s">
         <v>247</v>
@@ -2630,11 +3441,24 @@
       <c r="J32" t="s">
         <v>247</v>
       </c>
-      <c r="K32" t="s">
-        <v>247</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="K32" s="1"/>
+      <c r="L32" t="s" s="7">
+        <v>333</v>
+      </c>
+      <c r="M32" t="s">
         <v>80</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P32" t="s" s="7">
+        <v>334</v>
+      </c>
+      <c r="Q32" t="s" s="7">
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2648,7 +3472,7 @@
         <v>246</v>
       </c>
       <c r="D33" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="E33" s="4">
         <v>88887</v>
@@ -2657,7 +3481,7 @@
         <v>84</v>
       </c>
       <c r="G33" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="H33" t="s">
         <v>247</v>
@@ -2668,11 +3492,15 @@
       <c r="J33" t="s">
         <v>247</v>
       </c>
-      <c r="K33" t="s">
-        <v>247</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="K33" s="1"/>
+      <c r="L33" t="s" s="7">
+        <v>338</v>
+      </c>
+      <c r="M33" t="s">
         <v>82</v>
+      </c>
+      <c r="O33" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2686,14 +3514,14 @@
         <v>246</v>
       </c>
       <c r="D34" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" t="s">
         <v>87</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H34" t="s">
         <v>247</v>
@@ -2704,11 +3532,36 @@
       <c r="J34" t="s">
         <v>247</v>
       </c>
-      <c r="K34" t="s">
-        <v>247</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="K34" s="1"/>
+      <c r="L34" t="s" s="7">
+        <v>340</v>
+      </c>
+      <c r="M34" t="s">
         <v>85</v>
+      </c>
+      <c r="N34" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P34" t="s" s="7">
+        <v>341</v>
+      </c>
+      <c r="Q34" t="s" s="7">
+        <v>342</v>
+      </c>
+      <c r="R34" t="s" s="7">
+        <v>343</v>
+      </c>
+      <c r="S34" t="s" s="7">
+        <v>344</v>
+      </c>
+      <c r="T34" t="s" s="7">
+        <v>345</v>
+      </c>
+      <c r="U34" t="s" s="7">
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2722,13 +3575,13 @@
         <v>246</v>
       </c>
       <c r="D35" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="E35" s="4">
         <v>1358</v>
       </c>
       <c r="F35" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="G35" t="s">
         <v>248</v>
@@ -2742,11 +3595,21 @@
       <c r="J35" t="s">
         <v>247</v>
       </c>
-      <c r="K35" t="s">
-        <v>247</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="K35" s="1"/>
+      <c r="L35" t="s" s="7">
+        <v>349</v>
+      </c>
+      <c r="M35" t="s">
         <v>88</v>
+      </c>
+      <c r="N35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P35" t="s" s="7">
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2760,7 +3623,7 @@
         <v>246</v>
       </c>
       <c r="D36" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="E36" s="4">
         <v>88887</v>
@@ -2769,7 +3632,7 @@
         <v>92</v>
       </c>
       <c r="G36" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="H36" t="s">
         <v>247</v>
@@ -2780,11 +3643,18 @@
       <c r="J36" t="s">
         <v>247</v>
       </c>
-      <c r="K36" t="s">
-        <v>247</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="K36" s="1"/>
+      <c r="L36" t="s" s="7">
+        <v>352</v>
+      </c>
+      <c r="M36" t="s">
         <v>90</v>
+      </c>
+      <c r="N36" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2798,14 +3668,14 @@
         <v>246</v>
       </c>
       <c r="D37" t="s">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" t="s">
         <v>96</v>
       </c>
       <c r="G37" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
       <c r="H37" t="s">
         <v>247</v>
@@ -2816,11 +3686,24 @@
       <c r="J37" t="s">
         <v>247</v>
       </c>
-      <c r="K37" t="s">
-        <v>247</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="K37" s="1"/>
+      <c r="L37" t="s" s="7">
+        <v>355</v>
+      </c>
+      <c r="M37" t="s">
         <v>93</v>
+      </c>
+      <c r="N37" t="s">
+        <v>50</v>
+      </c>
+      <c r="O37" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P37" t="s" s="7">
+        <v>356</v>
+      </c>
+      <c r="Q37" t="s" s="7">
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2834,7 +3717,7 @@
         <v>246</v>
       </c>
       <c r="D38" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="E38" s="4">
         <v>1210</v>
@@ -2843,7 +3726,7 @@
         <v>99</v>
       </c>
       <c r="G38" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H38" t="s">
         <v>247</v>
@@ -2854,11 +3737,18 @@
       <c r="J38" t="s">
         <v>247</v>
       </c>
-      <c r="K38" t="s">
-        <v>247</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="K38" s="1"/>
+      <c r="L38" t="s" s="7">
+        <v>359</v>
+      </c>
+      <c r="M38" t="s">
         <v>97</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2872,7 +3762,7 @@
         <v>246</v>
       </c>
       <c r="D39" t="s">
-        <v>293</v>
+        <v>360</v>
       </c>
       <c r="E39" s="4">
         <v>1210</v>
@@ -2881,7 +3771,7 @@
         <v>99</v>
       </c>
       <c r="G39" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H39" t="s">
         <v>247</v>
@@ -2892,11 +3782,15 @@
       <c r="J39" t="s">
         <v>247</v>
       </c>
-      <c r="K39" t="s">
-        <v>251</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="K39" s="1"/>
+      <c r="L39" t="s" s="7">
+        <v>361</v>
+      </c>
+      <c r="M39" t="s">
         <v>97</v>
+      </c>
+      <c r="O39" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2910,7 +3804,7 @@
         <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>294</v>
+        <v>362</v>
       </c>
       <c r="E40" s="4">
         <v>1510</v>
@@ -2930,11 +3824,18 @@
       <c r="J40" t="s">
         <v>247</v>
       </c>
-      <c r="K40" t="s">
-        <v>247</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="K40" s="1"/>
+      <c r="L40" t="s" s="7">
+        <v>363</v>
+      </c>
+      <c r="M40" t="s">
         <v>100</v>
+      </c>
+      <c r="N40" t="s">
+        <v>61</v>
+      </c>
+      <c r="O40" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2948,14 +3849,14 @@
         <v>246</v>
       </c>
       <c r="D41" t="s">
-        <v>263</v>
+        <v>364</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" t="s">
         <v>84</v>
       </c>
       <c r="G41" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="H41" t="s">
         <v>247</v>
@@ -2966,11 +3867,15 @@
       <c r="J41" t="s">
         <v>247</v>
       </c>
-      <c r="K41" t="s">
-        <v>247</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="K41" s="1"/>
+      <c r="L41" t="s" s="7">
+        <v>365</v>
+      </c>
+      <c r="M41" t="s">
         <v>103</v>
+      </c>
+      <c r="O41" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2981,10 +3886,10 @@
         <v>247</v>
       </c>
       <c r="C42" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D42" t="s">
-        <v>295</v>
+        <v>366</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" t="s">
@@ -3002,11 +3907,21 @@
       <c r="J42" t="s">
         <v>247</v>
       </c>
-      <c r="K42" t="s">
-        <v>247</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="K42" s="1"/>
+      <c r="L42" t="s" s="7">
+        <v>368</v>
+      </c>
+      <c r="M42" t="s">
         <v>106</v>
+      </c>
+      <c r="N42" t="s">
+        <v>6</v>
+      </c>
+      <c r="O42" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P42" t="s" s="7">
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3017,10 +3932,10 @@
         <v>247</v>
       </c>
       <c r="C43" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D43" t="s">
-        <v>297</v>
+        <v>370</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" t="s">
@@ -3038,11 +3953,15 @@
       <c r="J43" t="s">
         <v>247</v>
       </c>
-      <c r="K43" t="s">
-        <v>251</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="K43" s="1"/>
+      <c r="L43" t="s" s="7">
+        <v>371</v>
+      </c>
+      <c r="M43" t="s">
         <v>106</v>
+      </c>
+      <c r="O43" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3053,10 +3972,10 @@
         <v>247</v>
       </c>
       <c r="C44" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D44" t="s">
-        <v>298</v>
+        <v>372</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>109</v>
@@ -3065,7 +3984,7 @@
         <v>54</v>
       </c>
       <c r="G44" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="H44" t="s">
         <v>247</v>
@@ -3076,11 +3995,30 @@
       <c r="J44" t="s">
         <v>247</v>
       </c>
-      <c r="K44" t="s">
-        <v>247</v>
-      </c>
-      <c r="O44" t="s">
+      <c r="K44" s="1"/>
+      <c r="L44" t="s" s="7">
+        <v>373</v>
+      </c>
+      <c r="M44" t="s">
         <v>108</v>
+      </c>
+      <c r="N44" t="s">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P44" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="Q44" t="s" s="7">
+        <v>375</v>
+      </c>
+      <c r="R44" t="s" s="7">
+        <v>376</v>
+      </c>
+      <c r="S44" t="s" s="7">
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3091,10 +4029,10 @@
         <v>247</v>
       </c>
       <c r="C45" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D45" t="s">
-        <v>299</v>
+        <v>378</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" t="s">
@@ -3112,11 +4050,18 @@
       <c r="J45" t="s">
         <v>247</v>
       </c>
-      <c r="K45" t="s">
-        <v>247</v>
-      </c>
-      <c r="O45" t="s">
+      <c r="K45" s="1"/>
+      <c r="L45" t="s" s="7">
+        <v>379</v>
+      </c>
+      <c r="M45" t="s">
         <v>111</v>
+      </c>
+      <c r="N45" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3127,10 +4072,10 @@
         <v>247</v>
       </c>
       <c r="C46" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D46" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="E46" s="4">
         <v>1210</v>
@@ -3150,11 +4095,21 @@
       <c r="J46" t="s">
         <v>247</v>
       </c>
-      <c r="K46" t="s">
-        <v>247</v>
-      </c>
-      <c r="O46" t="s">
+      <c r="K46" s="1"/>
+      <c r="L46" t="s" s="7">
+        <v>381</v>
+      </c>
+      <c r="M46" t="s">
         <v>113</v>
+      </c>
+      <c r="N46" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P46" t="s" s="7">
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3165,17 +4120,17 @@
         <v>247</v>
       </c>
       <c r="C47" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D47" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" t="s">
         <v>63</v>
       </c>
       <c r="G47" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H47" t="s">
         <v>247</v>
@@ -3186,11 +4141,18 @@
       <c r="J47" t="s">
         <v>247</v>
       </c>
-      <c r="K47" t="s">
-        <v>247</v>
-      </c>
-      <c r="O47" t="s">
+      <c r="K47" s="1"/>
+      <c r="L47" t="s" s="7">
+        <v>384</v>
+      </c>
+      <c r="M47" t="s">
         <v>116</v>
+      </c>
+      <c r="N47" t="s">
+        <v>50</v>
+      </c>
+      <c r="O47" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3201,10 +4163,10 @@
         <v>247</v>
       </c>
       <c r="C48" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D48" t="s">
-        <v>302</v>
+        <v>385</v>
       </c>
       <c r="E48" s="4">
         <v>1210</v>
@@ -3224,11 +4186,18 @@
       <c r="J48" t="s">
         <v>247</v>
       </c>
-      <c r="K48" t="s">
-        <v>247</v>
-      </c>
-      <c r="O48" t="s">
+      <c r="K48" s="1"/>
+      <c r="L48" t="s" s="7">
+        <v>386</v>
+      </c>
+      <c r="M48" t="s">
         <v>118</v>
+      </c>
+      <c r="N48" t="s">
+        <v>6</v>
+      </c>
+      <c r="O48" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3239,10 +4208,10 @@
         <v>247</v>
       </c>
       <c r="C49" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D49" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" t="s">
@@ -3260,11 +4229,18 @@
       <c r="J49" t="s">
         <v>247</v>
       </c>
-      <c r="K49" t="s">
-        <v>247</v>
-      </c>
-      <c r="O49" t="s">
+      <c r="K49" s="1"/>
+      <c r="L49" t="s" s="7">
+        <v>388</v>
+      </c>
+      <c r="M49" t="s">
         <v>121</v>
+      </c>
+      <c r="N49" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3275,17 +4251,17 @@
         <v>247</v>
       </c>
       <c r="C50" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D50" t="s">
-        <v>304</v>
+        <v>389</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" t="s">
         <v>125</v>
       </c>
       <c r="G50" t="s">
-        <v>305</v>
+        <v>390</v>
       </c>
       <c r="H50" t="s">
         <v>247</v>
@@ -3296,11 +4272,27 @@
       <c r="J50" t="s">
         <v>247</v>
       </c>
-      <c r="K50" t="s">
-        <v>247</v>
-      </c>
-      <c r="O50" t="s">
+      <c r="K50" s="1"/>
+      <c r="L50" t="s" s="7">
+        <v>391</v>
+      </c>
+      <c r="M50" t="s">
         <v>123</v>
+      </c>
+      <c r="N50" t="s">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P50" t="s" s="7">
+        <v>392</v>
+      </c>
+      <c r="Q50" t="s" s="7">
+        <v>393</v>
+      </c>
+      <c r="R50" t="s" s="7">
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3311,10 +4303,10 @@
         <v>247</v>
       </c>
       <c r="C51" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D51" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="E51" s="4">
         <v>1210</v>
@@ -3334,11 +4326,18 @@
       <c r="J51" t="s">
         <v>247</v>
       </c>
-      <c r="K51" t="s">
-        <v>247</v>
-      </c>
-      <c r="O51" t="s">
+      <c r="K51" s="1"/>
+      <c r="L51" t="s" s="7">
+        <v>396</v>
+      </c>
+      <c r="M51" t="s">
         <v>126</v>
+      </c>
+      <c r="N51" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3349,10 +4348,10 @@
         <v>247</v>
       </c>
       <c r="C52" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D52" t="s">
-        <v>307</v>
+        <v>397</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" t="s">
@@ -3370,11 +4369,18 @@
       <c r="J52" t="s">
         <v>247</v>
       </c>
-      <c r="K52" t="s">
-        <v>247</v>
-      </c>
-      <c r="O52" t="s">
+      <c r="K52" s="1"/>
+      <c r="L52" t="s" s="7">
+        <v>398</v>
+      </c>
+      <c r="M52" t="s">
         <v>129</v>
+      </c>
+      <c r="N52" t="s">
+        <v>50</v>
+      </c>
+      <c r="O52" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3385,10 +4391,10 @@
         <v>247</v>
       </c>
       <c r="C53" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D53" t="s">
-        <v>307</v>
+        <v>399</v>
       </c>
       <c r="E53" s="4">
         <v>88887</v>
@@ -3397,7 +4403,7 @@
         <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="H53" t="s">
         <v>247</v>
@@ -3408,11 +4414,24 @@
       <c r="J53" t="s">
         <v>247</v>
       </c>
-      <c r="K53" t="s">
-        <v>247</v>
-      </c>
-      <c r="O53" t="s">
+      <c r="K53" s="1"/>
+      <c r="L53" t="s" s="7">
+        <v>400</v>
+      </c>
+      <c r="M53" t="s">
         <v>131</v>
+      </c>
+      <c r="N53" t="s">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P53" t="s" s="7">
+        <v>401</v>
+      </c>
+      <c r="Q53" t="s" s="7">
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3423,10 +4442,10 @@
         <v>247</v>
       </c>
       <c r="C54" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D54" t="s">
-        <v>308</v>
+        <v>403</v>
       </c>
       <c r="E54" s="4">
         <v>1210</v>
@@ -3446,11 +4465,18 @@
       <c r="J54" t="s">
         <v>247</v>
       </c>
-      <c r="K54" t="s">
-        <v>251</v>
-      </c>
-      <c r="O54" t="s">
+      <c r="K54" s="1"/>
+      <c r="L54" t="s" s="7">
+        <v>404</v>
+      </c>
+      <c r="M54" t="s">
         <v>126</v>
+      </c>
+      <c r="O54" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P54" t="s" s="7">
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3461,10 +4487,10 @@
         <v>247</v>
       </c>
       <c r="C55" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D55" t="s">
-        <v>309</v>
+        <v>406</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" t="s">
@@ -3482,11 +4508,18 @@
       <c r="J55" t="s">
         <v>247</v>
       </c>
-      <c r="K55" t="s">
-        <v>247</v>
-      </c>
-      <c r="O55" t="s">
+      <c r="K55" s="1"/>
+      <c r="L55" t="s" s="7">
+        <v>407</v>
+      </c>
+      <c r="M55" t="s">
         <v>134</v>
+      </c>
+      <c r="N55" t="s">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3497,17 +4530,17 @@
         <v>247</v>
       </c>
       <c r="C56" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D56" t="s">
-        <v>310</v>
+        <v>408</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" t="s">
         <v>70</v>
       </c>
       <c r="G56" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="H56" t="s">
         <v>247</v>
@@ -3518,11 +4551,18 @@
       <c r="J56" t="s">
         <v>247</v>
       </c>
-      <c r="K56" t="s">
-        <v>247</v>
-      </c>
-      <c r="O56" t="s">
+      <c r="K56" s="1"/>
+      <c r="L56" t="s" s="7">
+        <v>409</v>
+      </c>
+      <c r="M56" t="s">
         <v>137</v>
+      </c>
+      <c r="N56" t="s">
+        <v>61</v>
+      </c>
+      <c r="O56" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3533,10 +4573,10 @@
         <v>247</v>
       </c>
       <c r="C57" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D57" t="s">
-        <v>260</v>
+        <v>410</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" t="s">
@@ -3554,11 +4594,18 @@
       <c r="J57" t="s">
         <v>247</v>
       </c>
-      <c r="K57" t="s">
-        <v>247</v>
-      </c>
-      <c r="O57" t="s">
+      <c r="K57" s="1"/>
+      <c r="L57" t="s" s="7">
+        <v>411</v>
+      </c>
+      <c r="M57" t="s">
         <v>139</v>
+      </c>
+      <c r="O57" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P57" t="s" s="7">
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3569,10 +4616,10 @@
         <v>247</v>
       </c>
       <c r="C58" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D58" t="s">
-        <v>262</v>
+        <v>413</v>
       </c>
       <c r="E58" s="4">
         <v>1210</v>
@@ -3592,11 +4639,18 @@
       <c r="J58" t="s">
         <v>247</v>
       </c>
-      <c r="K58" t="s">
-        <v>247</v>
-      </c>
-      <c r="O58" t="s">
+      <c r="K58" s="1"/>
+      <c r="L58" t="s" s="7">
+        <v>414</v>
+      </c>
+      <c r="M58" t="s">
         <v>141</v>
+      </c>
+      <c r="N58" t="s">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3607,10 +4661,10 @@
         <v>247</v>
       </c>
       <c r="C59" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D59" t="s">
-        <v>311</v>
+        <v>415</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" t="s">
@@ -3628,11 +4682,18 @@
       <c r="J59" t="s">
         <v>247</v>
       </c>
-      <c r="K59" t="s">
-        <v>247</v>
-      </c>
-      <c r="O59" t="s">
+      <c r="K59" s="1"/>
+      <c r="L59" t="s" s="7">
+        <v>416</v>
+      </c>
+      <c r="M59" t="s">
         <v>143</v>
+      </c>
+      <c r="N59" t="s">
+        <v>50</v>
+      </c>
+      <c r="O59" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3643,10 +4704,10 @@
         <v>247</v>
       </c>
       <c r="C60" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D60" t="s">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="E60" s="4">
         <v>957</v>
@@ -3666,11 +4727,36 @@
       <c r="J60" t="s">
         <v>247</v>
       </c>
-      <c r="K60" t="s">
-        <v>247</v>
-      </c>
-      <c r="O60" t="s">
+      <c r="K60" s="1"/>
+      <c r="L60" t="s" s="7">
+        <v>418</v>
+      </c>
+      <c r="M60" t="s">
         <v>145</v>
+      </c>
+      <c r="N60" t="s">
+        <v>6</v>
+      </c>
+      <c r="O60" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P60" t="s" s="7">
+        <v>419</v>
+      </c>
+      <c r="Q60" t="s" s="7">
+        <v>420</v>
+      </c>
+      <c r="R60" t="s" s="7">
+        <v>421</v>
+      </c>
+      <c r="S60" t="s" s="7">
+        <v>422</v>
+      </c>
+      <c r="T60" t="s" s="7">
+        <v>423</v>
+      </c>
+      <c r="U60" t="s" s="7">
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3681,17 +4767,17 @@
         <v>247</v>
       </c>
       <c r="C61" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D61" t="s">
-        <v>313</v>
+        <v>425</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" t="s">
         <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H61" t="s">
         <v>247</v>
@@ -3702,11 +4788,18 @@
       <c r="J61" t="s">
         <v>247</v>
       </c>
-      <c r="K61" t="s">
-        <v>247</v>
-      </c>
-      <c r="O61" t="s">
+      <c r="K61" s="1"/>
+      <c r="L61" t="s" s="7">
+        <v>426</v>
+      </c>
+      <c r="M61" t="s">
         <v>148</v>
+      </c>
+      <c r="N61" t="s">
+        <v>6</v>
+      </c>
+      <c r="O61" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3717,17 +4810,17 @@
         <v>247</v>
       </c>
       <c r="C62" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D62" t="s">
-        <v>314</v>
+        <v>427</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" t="s">
         <v>84</v>
       </c>
       <c r="G62" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="H62" t="s">
         <v>247</v>
@@ -3738,11 +4831,21 @@
       <c r="J62" t="s">
         <v>247</v>
       </c>
-      <c r="K62" t="s">
-        <v>247</v>
-      </c>
-      <c r="O62" t="s">
+      <c r="K62" s="1"/>
+      <c r="L62" t="s" s="7">
+        <v>428</v>
+      </c>
+      <c r="M62" t="s">
         <v>150</v>
+      </c>
+      <c r="N62" t="s">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P62" t="s" s="7">
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3753,10 +4856,10 @@
         <v>247</v>
       </c>
       <c r="C63" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D63" t="s">
-        <v>266</v>
+        <v>430</v>
       </c>
       <c r="E63" s="4">
         <v>957</v>
@@ -3776,11 +4879,18 @@
       <c r="J63" t="s">
         <v>247</v>
       </c>
-      <c r="K63" t="s">
-        <v>247</v>
-      </c>
-      <c r="O63" t="s">
+      <c r="K63" s="1"/>
+      <c r="L63" t="s" s="7">
+        <v>431</v>
+      </c>
+      <c r="M63" t="s">
         <v>152</v>
+      </c>
+      <c r="N63" t="s">
+        <v>6</v>
+      </c>
+      <c r="O63" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3791,10 +4901,10 @@
         <v>247</v>
       </c>
       <c r="C64" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D64" t="s">
-        <v>315</v>
+        <v>432</v>
       </c>
       <c r="E64" s="4">
         <v>88887</v>
@@ -3803,7 +4913,7 @@
         <v>156</v>
       </c>
       <c r="G64" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H64" t="s">
         <v>247</v>
@@ -3814,11 +4924,21 @@
       <c r="J64" t="s">
         <v>247</v>
       </c>
-      <c r="K64" t="s">
-        <v>247</v>
-      </c>
-      <c r="O64" t="s">
+      <c r="K64" s="1"/>
+      <c r="L64" t="s" s="7">
+        <v>433</v>
+      </c>
+      <c r="M64" t="s">
         <v>154</v>
+      </c>
+      <c r="N64" t="s">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P64" t="s" s="7">
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3829,17 +4949,17 @@
         <v>247</v>
       </c>
       <c r="C65" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D65" t="s">
-        <v>316</v>
+        <v>435</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" t="s">
         <v>159</v>
       </c>
       <c r="G65" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="H65" t="s">
         <v>247</v>
@@ -3850,11 +4970,18 @@
       <c r="J65" t="s">
         <v>247</v>
       </c>
-      <c r="K65" t="s">
-        <v>247</v>
-      </c>
-      <c r="O65" t="s">
+      <c r="K65" s="1"/>
+      <c r="L65" t="s" s="7">
+        <v>436</v>
+      </c>
+      <c r="M65" t="s">
         <v>157</v>
+      </c>
+      <c r="N65" t="s">
+        <v>6</v>
+      </c>
+      <c r="O65" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3865,10 +4992,10 @@
         <v>247</v>
       </c>
       <c r="C66" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D66" t="s">
-        <v>317</v>
+        <v>437</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" t="s">
@@ -3886,11 +5013,27 @@
       <c r="J66" t="s">
         <v>247</v>
       </c>
-      <c r="K66" t="s">
-        <v>247</v>
-      </c>
-      <c r="O66" t="s">
+      <c r="K66" s="1"/>
+      <c r="L66" t="s" s="7">
+        <v>438</v>
+      </c>
+      <c r="M66" t="s">
         <v>160</v>
+      </c>
+      <c r="N66" t="s">
+        <v>6</v>
+      </c>
+      <c r="O66" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P66" t="s" s="7">
+        <v>439</v>
+      </c>
+      <c r="Q66" t="s" s="7">
+        <v>440</v>
+      </c>
+      <c r="R66" t="s" s="7">
+        <v>441</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3901,10 +5044,10 @@
         <v>247</v>
       </c>
       <c r="C67" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D67" t="s">
-        <v>318</v>
+        <v>442</v>
       </c>
       <c r="E67" s="4">
         <v>1358</v>
@@ -3924,11 +5067,21 @@
       <c r="J67" t="s">
         <v>247</v>
       </c>
-      <c r="K67" t="s">
-        <v>247</v>
-      </c>
-      <c r="O67" t="s">
+      <c r="K67" s="1"/>
+      <c r="L67" t="s" s="7">
+        <v>443</v>
+      </c>
+      <c r="M67" t="s">
         <v>162</v>
+      </c>
+      <c r="N67" t="s">
+        <v>6</v>
+      </c>
+      <c r="O67" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P67" t="s" s="7">
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3939,17 +5092,17 @@
         <v>247</v>
       </c>
       <c r="C68" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D68" t="s">
-        <v>319</v>
+        <v>445</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" t="s">
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H68" t="s">
         <v>247</v>
@@ -3960,11 +5113,18 @@
       <c r="J68" t="s">
         <v>247</v>
       </c>
-      <c r="K68" t="s">
-        <v>247</v>
-      </c>
-      <c r="O68" t="s">
+      <c r="K68" s="1"/>
+      <c r="L68" t="s" s="7">
+        <v>446</v>
+      </c>
+      <c r="M68" t="s">
         <v>164</v>
+      </c>
+      <c r="N68" t="s">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3975,10 +5135,10 @@
         <v>247</v>
       </c>
       <c r="C69" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D69" t="s">
-        <v>245</v>
+        <v>447</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" t="s">
@@ -3996,11 +5156,18 @@
       <c r="J69" t="s">
         <v>247</v>
       </c>
-      <c r="K69" t="s">
-        <v>251</v>
-      </c>
-      <c r="O69" t="s">
+      <c r="K69" s="1"/>
+      <c r="L69" t="s" s="7">
+        <v>448</v>
+      </c>
+      <c r="M69" t="s">
         <v>166</v>
+      </c>
+      <c r="O69" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P69" t="s" s="7">
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4011,10 +5178,10 @@
         <v>247</v>
       </c>
       <c r="C70" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="D70" t="s">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="E70" s="4">
         <v>88887</v>
@@ -4034,11 +5201,18 @@
       <c r="J70" t="s">
         <v>247</v>
       </c>
-      <c r="K70" t="s">
-        <v>247</v>
-      </c>
-      <c r="O70" t="s">
+      <c r="K70" s="1"/>
+      <c r="L70" t="s" s="7">
+        <v>451</v>
+      </c>
+      <c r="M70" t="s">
         <v>168</v>
+      </c>
+      <c r="N70" t="s">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4049,10 +5223,10 @@
         <v>247</v>
       </c>
       <c r="C71" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D71" t="s">
-        <v>321</v>
+        <v>452</v>
       </c>
       <c r="E71" s="4">
         <v>1358</v>
@@ -4072,11 +5246,27 @@
       <c r="J71" t="s">
         <v>247</v>
       </c>
-      <c r="K71" t="s">
-        <v>247</v>
-      </c>
-      <c r="O71" t="s">
+      <c r="K71" s="1"/>
+      <c r="L71" t="s" s="7">
+        <v>454</v>
+      </c>
+      <c r="M71" t="s">
         <v>175</v>
+      </c>
+      <c r="N71" t="s">
+        <v>6</v>
+      </c>
+      <c r="O71" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P71" t="s" s="7">
+        <v>455</v>
+      </c>
+      <c r="Q71" t="s" s="7">
+        <v>456</v>
+      </c>
+      <c r="R71" t="s" s="7">
+        <v>457</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4087,10 +5277,10 @@
         <v>247</v>
       </c>
       <c r="C72" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D72" t="s">
-        <v>323</v>
+        <v>458</v>
       </c>
       <c r="E72" s="4">
         <v>1210</v>
@@ -4110,11 +5300,24 @@
       <c r="J72" t="s">
         <v>247</v>
       </c>
-      <c r="K72" t="s">
-        <v>247</v>
-      </c>
-      <c r="O72" t="s">
+      <c r="K72" s="1"/>
+      <c r="L72" t="s" s="7">
+        <v>459</v>
+      </c>
+      <c r="M72" t="s">
         <v>177</v>
+      </c>
+      <c r="N72" t="s">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P72" t="s" s="7">
+        <v>460</v>
+      </c>
+      <c r="Q72" t="s" s="7">
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4125,17 +5328,17 @@
         <v>247</v>
       </c>
       <c r="C73" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D73" t="s">
-        <v>324</v>
+        <v>462</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" t="s">
         <v>92</v>
       </c>
       <c r="G73" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="H73" t="s">
         <v>247</v>
@@ -4146,11 +5349,15 @@
       <c r="J73" t="s">
         <v>247</v>
       </c>
-      <c r="K73" t="s">
-        <v>247</v>
-      </c>
-      <c r="O73" t="s">
+      <c r="K73" s="1"/>
+      <c r="L73" t="s" s="7">
+        <v>463</v>
+      </c>
+      <c r="M73" t="s">
         <v>179</v>
+      </c>
+      <c r="O73" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4161,10 +5368,10 @@
         <v>247</v>
       </c>
       <c r="C74" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D74" t="s">
-        <v>325</v>
+        <v>464</v>
       </c>
       <c r="E74" s="4">
         <v>3232</v>
@@ -4184,11 +5391,15 @@
       <c r="J74" t="s">
         <v>247</v>
       </c>
-      <c r="K74" t="s">
-        <v>251</v>
-      </c>
-      <c r="O74" t="s">
+      <c r="K74" s="1"/>
+      <c r="L74" t="s" s="7">
+        <v>465</v>
+      </c>
+      <c r="M74" t="s">
         <v>174</v>
+      </c>
+      <c r="O74" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4199,10 +5410,10 @@
         <v>247</v>
       </c>
       <c r="C75" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D75" t="s">
-        <v>326</v>
+        <v>466</v>
       </c>
       <c r="E75" s="4">
         <v>88887</v>
@@ -4222,11 +5433,18 @@
       <c r="J75" t="s">
         <v>247</v>
       </c>
-      <c r="K75" t="s">
-        <v>247</v>
-      </c>
-      <c r="O75" t="s">
+      <c r="K75" s="1"/>
+      <c r="L75" t="s" s="7">
+        <v>467</v>
+      </c>
+      <c r="M75" t="s">
         <v>181</v>
+      </c>
+      <c r="N75" t="s">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4237,10 +5455,10 @@
         <v>247</v>
       </c>
       <c r="C76" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D76" t="s">
-        <v>327</v>
+        <v>468</v>
       </c>
       <c r="E76" s="4">
         <v>88887</v>
@@ -4260,11 +5478,18 @@
       <c r="J76" t="s">
         <v>247</v>
       </c>
-      <c r="K76" t="s">
-        <v>247</v>
-      </c>
-      <c r="O76" t="s">
+      <c r="K76" s="1"/>
+      <c r="L76" t="s" s="7">
+        <v>469</v>
+      </c>
+      <c r="M76" t="s">
         <v>183</v>
+      </c>
+      <c r="N76" t="s">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4275,10 +5500,10 @@
         <v>247</v>
       </c>
       <c r="C77" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D77" t="s">
-        <v>328</v>
+        <v>470</v>
       </c>
       <c r="E77" s="4">
         <v>88887</v>
@@ -4298,11 +5523,21 @@
       <c r="J77" t="s">
         <v>247</v>
       </c>
-      <c r="K77" t="s">
-        <v>247</v>
-      </c>
-      <c r="O77" t="s">
+      <c r="K77" s="1"/>
+      <c r="L77" t="s" s="7">
+        <v>471</v>
+      </c>
+      <c r="M77" t="s">
         <v>185</v>
+      </c>
+      <c r="N77" t="s">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P77" t="s" s="7">
+        <v>472</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4313,10 +5548,10 @@
         <v>247</v>
       </c>
       <c r="C78" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D78" t="s">
-        <v>328</v>
+        <v>473</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" t="s">
@@ -4334,11 +5569,18 @@
       <c r="J78" t="s">
         <v>247</v>
       </c>
-      <c r="K78" t="s">
-        <v>247</v>
-      </c>
-      <c r="O78" t="s">
+      <c r="K78" s="1"/>
+      <c r="L78" t="s" s="7">
+        <v>474</v>
+      </c>
+      <c r="M78" t="s">
         <v>187</v>
+      </c>
+      <c r="N78" t="s">
+        <v>6</v>
+      </c>
+      <c r="O78" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4349,10 +5591,10 @@
         <v>247</v>
       </c>
       <c r="C79" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D79" t="s">
-        <v>328</v>
+        <v>475</v>
       </c>
       <c r="E79" s="4">
         <v>3232</v>
@@ -4361,7 +5603,7 @@
         <v>75</v>
       </c>
       <c r="G79" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H79" t="s">
         <v>247</v>
@@ -4372,11 +5614,15 @@
       <c r="J79" t="s">
         <v>247</v>
       </c>
-      <c r="K79" t="s">
-        <v>251</v>
-      </c>
-      <c r="O79" t="s">
+      <c r="K79" s="1"/>
+      <c r="L79" t="s" s="7">
+        <v>476</v>
+      </c>
+      <c r="M79" t="s">
         <v>174</v>
+      </c>
+      <c r="O79" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4387,10 +5633,10 @@
         <v>247</v>
       </c>
       <c r="C80" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D80" t="s">
-        <v>329</v>
+        <v>477</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" t="s">
@@ -4408,11 +5654,18 @@
       <c r="J80" t="s">
         <v>247</v>
       </c>
-      <c r="K80" t="s">
-        <v>247</v>
-      </c>
-      <c r="O80" t="s">
+      <c r="K80" s="1"/>
+      <c r="L80" t="s" s="7">
+        <v>478</v>
+      </c>
+      <c r="M80" t="s">
         <v>189</v>
+      </c>
+      <c r="N80" t="s">
+        <v>6</v>
+      </c>
+      <c r="O80" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4423,10 +5676,10 @@
         <v>247</v>
       </c>
       <c r="C81" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D81" t="s">
-        <v>330</v>
+        <v>479</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" t="s">
@@ -4444,11 +5697,24 @@
       <c r="J81" t="s">
         <v>247</v>
       </c>
-      <c r="K81" t="s">
-        <v>247</v>
-      </c>
-      <c r="O81" t="s">
+      <c r="K81" s="1"/>
+      <c r="L81" t="s" s="7">
+        <v>480</v>
+      </c>
+      <c r="M81" t="s">
         <v>192</v>
+      </c>
+      <c r="N81" t="s">
+        <v>6</v>
+      </c>
+      <c r="O81" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P81" t="s" s="7">
+        <v>481</v>
+      </c>
+      <c r="Q81" t="s" s="7">
+        <v>482</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4459,10 +5725,10 @@
         <v>247</v>
       </c>
       <c r="C82" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D82" t="s">
-        <v>331</v>
+        <v>483</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>196</v>
@@ -4471,7 +5737,7 @@
         <v>199</v>
       </c>
       <c r="G82" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="H82" t="s">
         <v>247</v>
@@ -4482,11 +5748,21 @@
       <c r="J82" t="s">
         <v>247</v>
       </c>
-      <c r="K82" t="s">
-        <v>247</v>
-      </c>
-      <c r="O82" t="s">
+      <c r="K82" s="1"/>
+      <c r="L82" t="s" s="7">
+        <v>484</v>
+      </c>
+      <c r="M82" t="s">
         <v>195</v>
+      </c>
+      <c r="N82" t="s">
+        <v>61</v>
+      </c>
+      <c r="O82" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P82" t="s" s="7">
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4497,10 +5773,10 @@
         <v>247</v>
       </c>
       <c r="C83" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D83" t="s">
-        <v>332</v>
+        <v>486</v>
       </c>
       <c r="E83" s="4">
         <v>1210</v>
@@ -4520,11 +5796,33 @@
       <c r="J83" t="s">
         <v>247</v>
       </c>
-      <c r="K83" t="s">
-        <v>247</v>
-      </c>
-      <c r="O83" t="s">
+      <c r="K83" s="1"/>
+      <c r="L83" t="s" s="7">
+        <v>487</v>
+      </c>
+      <c r="M83" t="s">
         <v>200</v>
+      </c>
+      <c r="N83" t="s">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P83" t="s" s="7">
+        <v>374</v>
+      </c>
+      <c r="Q83" t="s" s="7">
+        <v>488</v>
+      </c>
+      <c r="R83" t="s" s="7">
+        <v>489</v>
+      </c>
+      <c r="S83" t="s" s="7">
+        <v>490</v>
+      </c>
+      <c r="T83" t="s" s="7">
+        <v>491</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4535,10 +5833,10 @@
         <v>247</v>
       </c>
       <c r="C84" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D84" t="s">
-        <v>333</v>
+        <v>492</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" t="s">
@@ -4556,11 +5854,15 @@
       <c r="J84" t="s">
         <v>247</v>
       </c>
-      <c r="K84" t="s">
-        <v>247</v>
-      </c>
-      <c r="O84" t="s">
+      <c r="K84" s="1"/>
+      <c r="L84" t="s" s="7">
+        <v>493</v>
+      </c>
+      <c r="M84" t="s">
         <v>202</v>
+      </c>
+      <c r="O84" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4571,10 +5873,10 @@
         <v>247</v>
       </c>
       <c r="C85" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D85" t="s">
-        <v>334</v>
+        <v>494</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" t="s">
@@ -4592,11 +5894,18 @@
       <c r="J85" t="s">
         <v>247</v>
       </c>
-      <c r="K85" t="s">
-        <v>247</v>
-      </c>
-      <c r="O85" t="s">
+      <c r="K85" s="1"/>
+      <c r="L85" t="s" s="7">
+        <v>495</v>
+      </c>
+      <c r="M85" t="s">
         <v>204</v>
+      </c>
+      <c r="N85" t="s">
+        <v>1</v>
+      </c>
+      <c r="O85" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4607,10 +5916,10 @@
         <v>247</v>
       </c>
       <c r="C86" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D86" t="s">
-        <v>335</v>
+        <v>496</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" t="s">
@@ -4628,11 +5937,18 @@
       <c r="J86" t="s">
         <v>247</v>
       </c>
-      <c r="K86" t="s">
-        <v>247</v>
-      </c>
-      <c r="O86" t="s">
+      <c r="K86" s="1"/>
+      <c r="L86" t="s" s="7">
+        <v>497</v>
+      </c>
+      <c r="M86" t="s">
         <v>206</v>
+      </c>
+      <c r="N86" t="s">
+        <v>6</v>
+      </c>
+      <c r="O86" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4643,10 +5959,10 @@
         <v>247</v>
       </c>
       <c r="C87" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D87" t="s">
-        <v>336</v>
+        <v>498</v>
       </c>
       <c r="E87" s="4">
         <v>88887</v>
@@ -4666,11 +5982,18 @@
       <c r="J87" t="s">
         <v>247</v>
       </c>
-      <c r="K87" t="s">
-        <v>247</v>
-      </c>
-      <c r="O87" t="s">
+      <c r="K87" s="1"/>
+      <c r="L87" t="s" s="7">
+        <v>499</v>
+      </c>
+      <c r="M87" t="s">
         <v>209</v>
+      </c>
+      <c r="N87" t="s">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4681,10 +6004,10 @@
         <v>247</v>
       </c>
       <c r="C88" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D88" t="s">
-        <v>256</v>
+        <v>500</v>
       </c>
       <c r="E88" s="4">
         <v>1210</v>
@@ -4704,11 +6027,18 @@
       <c r="J88" t="s">
         <v>247</v>
       </c>
-      <c r="K88" t="s">
-        <v>247</v>
-      </c>
-      <c r="O88" t="s">
+      <c r="K88" s="1"/>
+      <c r="L88" t="s" s="7">
+        <v>501</v>
+      </c>
+      <c r="M88" t="s">
         <v>211</v>
+      </c>
+      <c r="N88" t="s">
+        <v>6</v>
+      </c>
+      <c r="O88" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4719,17 +6049,17 @@
         <v>247</v>
       </c>
       <c r="C89" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D89" t="s">
-        <v>337</v>
+        <v>502</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" t="s">
         <v>54</v>
       </c>
       <c r="G89" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="H89" t="s">
         <v>247</v>
@@ -4740,11 +6070,18 @@
       <c r="J89" t="s">
         <v>247</v>
       </c>
-      <c r="K89" t="s">
-        <v>247</v>
-      </c>
-      <c r="O89" t="s">
+      <c r="K89" s="1"/>
+      <c r="L89" t="s" s="7">
+        <v>503</v>
+      </c>
+      <c r="M89" t="s">
         <v>213</v>
+      </c>
+      <c r="N89" t="s">
+        <v>170</v>
+      </c>
+      <c r="O89" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4755,17 +6092,17 @@
         <v>247</v>
       </c>
       <c r="C90" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D90" t="s">
-        <v>338</v>
+        <v>504</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" t="s">
         <v>218</v>
       </c>
       <c r="G90" t="s">
-        <v>339</v>
+        <v>505</v>
       </c>
       <c r="H90" t="s">
         <v>247</v>
@@ -4776,11 +6113,21 @@
       <c r="J90" t="s">
         <v>247</v>
       </c>
-      <c r="K90" t="s">
-        <v>247</v>
-      </c>
-      <c r="O90" t="s">
+      <c r="K90" s="1"/>
+      <c r="L90" t="s" s="7">
+        <v>506</v>
+      </c>
+      <c r="M90" t="s">
         <v>215</v>
+      </c>
+      <c r="N90" t="s">
+        <v>6</v>
+      </c>
+      <c r="O90" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P90" t="s" s="7">
+        <v>507</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4791,10 +6138,10 @@
         <v>247</v>
       </c>
       <c r="C91" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D91" t="s">
-        <v>302</v>
+        <v>508</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" t="s">
@@ -4812,11 +6159,15 @@
       <c r="J91" t="s">
         <v>247</v>
       </c>
-      <c r="K91" t="s">
-        <v>247</v>
-      </c>
-      <c r="O91" t="s">
+      <c r="K91" s="1"/>
+      <c r="L91" t="s" s="7">
+        <v>509</v>
+      </c>
+      <c r="M91" t="s">
         <v>219</v>
+      </c>
+      <c r="O91" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4827,17 +6178,17 @@
         <v>247</v>
       </c>
       <c r="C92" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D92" t="s">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" t="s">
         <v>87</v>
       </c>
       <c r="G92" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H92" t="s">
         <v>247</v>
@@ -4848,11 +6199,21 @@
       <c r="J92" t="s">
         <v>247</v>
       </c>
-      <c r="K92" t="s">
-        <v>247</v>
-      </c>
-      <c r="O92" t="s">
+      <c r="K92" s="1"/>
+      <c r="L92" t="s" s="7">
+        <v>511</v>
+      </c>
+      <c r="M92" t="s">
         <v>221</v>
+      </c>
+      <c r="N92" t="s">
+        <v>6</v>
+      </c>
+      <c r="O92" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P92" t="s" s="7">
+        <v>512</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4863,10 +6224,10 @@
         <v>247</v>
       </c>
       <c r="C93" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D93" t="s">
-        <v>340</v>
+        <v>513</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" t="s">
@@ -4884,11 +6245,18 @@
       <c r="J93" t="s">
         <v>247</v>
       </c>
-      <c r="K93" t="s">
-        <v>247</v>
-      </c>
-      <c r="O93" t="s">
+      <c r="K93" s="1"/>
+      <c r="L93" t="s" s="7">
+        <v>514</v>
+      </c>
+      <c r="M93" t="s">
         <v>223</v>
+      </c>
+      <c r="N93" t="s">
+        <v>6</v>
+      </c>
+      <c r="O93" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4899,10 +6267,10 @@
         <v>247</v>
       </c>
       <c r="C94" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D94" t="s">
-        <v>341</v>
+        <v>515</v>
       </c>
       <c r="E94" s="4">
         <v>88889</v>
@@ -4922,11 +6290,21 @@
       <c r="J94" t="s">
         <v>247</v>
       </c>
-      <c r="K94" t="s">
-        <v>247</v>
-      </c>
-      <c r="O94" t="s">
+      <c r="K94" s="1"/>
+      <c r="L94" t="s" s="7">
+        <v>516</v>
+      </c>
+      <c r="M94" t="s">
         <v>225</v>
+      </c>
+      <c r="N94" t="s">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P94" t="s" s="7">
+        <v>517</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4937,10 +6315,10 @@
         <v>247</v>
       </c>
       <c r="C95" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D95" t="s">
-        <v>342</v>
+        <v>518</v>
       </c>
       <c r="E95" s="4">
         <v>88887</v>
@@ -4949,7 +6327,7 @@
         <v>125</v>
       </c>
       <c r="G95" t="s">
-        <v>305</v>
+        <v>390</v>
       </c>
       <c r="H95" t="s">
         <v>247</v>
@@ -4960,11 +6338,18 @@
       <c r="J95" t="s">
         <v>247</v>
       </c>
-      <c r="K95" t="s">
-        <v>247</v>
-      </c>
-      <c r="O95" t="s">
+      <c r="K95" s="1"/>
+      <c r="L95" t="s" s="7">
+        <v>519</v>
+      </c>
+      <c r="M95" t="s">
         <v>227</v>
+      </c>
+      <c r="N95" t="s">
+        <v>1</v>
+      </c>
+      <c r="O95" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4975,10 +6360,10 @@
         <v>247</v>
       </c>
       <c r="C96" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D96" t="s">
-        <v>343</v>
+        <v>520</v>
       </c>
       <c r="E96" s="4">
         <v>1210</v>
@@ -4987,7 +6372,7 @@
         <v>63</v>
       </c>
       <c r="G96" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H96" t="s">
         <v>247</v>
@@ -4998,11 +6383,18 @@
       <c r="J96" t="s">
         <v>247</v>
       </c>
-      <c r="K96" t="s">
-        <v>247</v>
-      </c>
-      <c r="O96" t="s">
+      <c r="K96" s="1"/>
+      <c r="L96" t="s" s="7">
+        <v>521</v>
+      </c>
+      <c r="M96" t="s">
         <v>229</v>
+      </c>
+      <c r="N96" t="s">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5013,10 +6405,10 @@
         <v>247</v>
       </c>
       <c r="C97" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D97" t="s">
-        <v>344</v>
+        <v>522</v>
       </c>
       <c r="E97" s="4">
         <v>1421</v>
@@ -5025,7 +6417,7 @@
         <v>235</v>
       </c>
       <c r="G97" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
       <c r="H97" t="s">
         <v>247</v>
@@ -5036,11 +6428,18 @@
       <c r="J97" t="s">
         <v>247</v>
       </c>
-      <c r="K97" t="s">
-        <v>247</v>
-      </c>
-      <c r="O97" t="s">
+      <c r="K97" s="1"/>
+      <c r="L97" t="s" s="7">
+        <v>523</v>
+      </c>
+      <c r="M97" t="s">
         <v>231</v>
+      </c>
+      <c r="N97" t="s">
+        <v>170</v>
+      </c>
+      <c r="O97" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5051,17 +6450,17 @@
         <v>247</v>
       </c>
       <c r="C98" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D98" t="s">
-        <v>345</v>
+        <v>524</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" t="s">
         <v>235</v>
       </c>
       <c r="G98" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
       <c r="H98" t="s">
         <v>247</v>
@@ -5072,11 +6471,15 @@
       <c r="J98" t="s">
         <v>247</v>
       </c>
-      <c r="K98" t="s">
-        <v>251</v>
-      </c>
-      <c r="O98" t="s">
+      <c r="K98" s="1"/>
+      <c r="L98" t="s" s="7">
+        <v>525</v>
+      </c>
+      <c r="M98" t="s">
         <v>234</v>
+      </c>
+      <c r="O98" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -5087,17 +6490,17 @@
         <v>247</v>
       </c>
       <c r="C99" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D99" t="s">
-        <v>346</v>
+        <v>526</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" t="s">
         <v>238</v>
       </c>
       <c r="G99" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="H99" t="s">
         <v>247</v>
@@ -5108,11 +6511,21 @@
       <c r="J99" t="s">
         <v>247</v>
       </c>
-      <c r="K99" t="s">
-        <v>247</v>
-      </c>
-      <c r="O99" t="s">
+      <c r="K99" s="1"/>
+      <c r="L99" t="s" s="7">
+        <v>527</v>
+      </c>
+      <c r="M99" t="s">
         <v>236</v>
+      </c>
+      <c r="N99" t="s">
+        <v>61</v>
+      </c>
+      <c r="O99" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P99" t="s" s="7">
+        <v>528</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5123,17 +6536,17 @@
         <v>247</v>
       </c>
       <c r="C100" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D100" t="s">
-        <v>347</v>
+        <v>529</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" t="s">
         <v>70</v>
       </c>
       <c r="G100" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="H100" t="s">
         <v>247</v>
@@ -5144,11 +6557,15 @@
       <c r="J100" t="s">
         <v>247</v>
       </c>
-      <c r="K100" t="s">
-        <v>247</v>
-      </c>
-      <c r="O100" t="s">
+      <c r="K100" s="1"/>
+      <c r="L100" t="s" s="7">
+        <v>530</v>
+      </c>
+      <c r="M100" t="s">
         <v>239</v>
+      </c>
+      <c r="O100" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5159,17 +6576,17 @@
         <v>247</v>
       </c>
       <c r="C101" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D101" t="s">
-        <v>348</v>
+        <v>531</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" t="s">
         <v>84</v>
       </c>
       <c r="G101" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="H101" t="s">
         <v>247</v>
@@ -5180,11 +6597,18 @@
       <c r="J101" t="s">
         <v>247</v>
       </c>
-      <c r="K101" t="s">
-        <v>247</v>
-      </c>
-      <c r="O101" t="s">
+      <c r="K101" s="1"/>
+      <c r="L101" t="s" s="7">
+        <v>532</v>
+      </c>
+      <c r="M101" t="s">
         <v>241</v>
+      </c>
+      <c r="N101" t="s">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s" s="7">
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -5195,17 +6619,17 @@
         <v>247</v>
       </c>
       <c r="C102" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="D102" t="s">
-        <v>349</v>
+        <v>533</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" t="s">
         <v>96</v>
       </c>
       <c r="G102" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
       <c r="H102" t="s">
         <v>247</v>
@@ -5216,14 +6640,311 @@
       <c r="J102" t="s">
         <v>247</v>
       </c>
-      <c r="K102" t="s">
-        <v>247</v>
-      </c>
-      <c r="O102" t="s">
+      <c r="K102" s="6"/>
+      <c r="L102" t="s" s="7">
+        <v>534</v>
+      </c>
+      <c r="M102" t="s">
         <v>243</v>
       </c>
+      <c r="N102" t="s">
+        <v>6</v>
+      </c>
+      <c r="O102" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="P102" t="s" s="7">
+        <v>535</v>
+      </c>
+      <c r="Q102" t="s" s="7">
+        <v>536</v>
+      </c>
+      <c r="R102" t="s" s="7">
+        <v>537</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L1" r:id="rId2"/>
+    <hyperlink ref="O1" r:id="rId3"/>
+    <hyperlink ref="L2" r:id="rId4"/>
+    <hyperlink ref="O2" r:id="rId5"/>
+    <hyperlink ref="L3" r:id="rId6"/>
+    <hyperlink ref="O3" r:id="rId7"/>
+    <hyperlink ref="L4" r:id="rId8"/>
+    <hyperlink ref="O4" r:id="rId9"/>
+    <hyperlink ref="L5" r:id="rId10"/>
+    <hyperlink ref="O5" r:id="rId11"/>
+    <hyperlink ref="L6" r:id="rId12"/>
+    <hyperlink ref="O6" r:id="rId13"/>
+    <hyperlink ref="L7" r:id="rId14"/>
+    <hyperlink ref="O7" r:id="rId15"/>
+    <hyperlink ref="P7" r:id="rId16"/>
+    <hyperlink ref="L8" r:id="rId17"/>
+    <hyperlink ref="O8" r:id="rId18"/>
+    <hyperlink ref="P8" r:id="rId19"/>
+    <hyperlink ref="L9" r:id="rId20"/>
+    <hyperlink ref="O9" r:id="rId21"/>
+    <hyperlink ref="L10" r:id="rId22"/>
+    <hyperlink ref="O10" r:id="rId23"/>
+    <hyperlink ref="L11" r:id="rId24"/>
+    <hyperlink ref="O11" r:id="rId25"/>
+    <hyperlink ref="L12" r:id="rId26"/>
+    <hyperlink ref="O12" r:id="rId27"/>
+    <hyperlink ref="P12" r:id="rId28"/>
+    <hyperlink ref="Q12" r:id="rId29"/>
+    <hyperlink ref="R12" r:id="rId30"/>
+    <hyperlink ref="S12" r:id="rId31"/>
+    <hyperlink ref="T12" r:id="rId32"/>
+    <hyperlink ref="L13" r:id="rId33"/>
+    <hyperlink ref="O13" r:id="rId34"/>
+    <hyperlink ref="L14" r:id="rId35"/>
+    <hyperlink ref="O14" r:id="rId36"/>
+    <hyperlink ref="L15" r:id="rId37"/>
+    <hyperlink ref="O15" r:id="rId38"/>
+    <hyperlink ref="L16" r:id="rId39"/>
+    <hyperlink ref="O16" r:id="rId40"/>
+    <hyperlink ref="L17" r:id="rId41"/>
+    <hyperlink ref="O17" r:id="rId42"/>
+    <hyperlink ref="L18" r:id="rId43"/>
+    <hyperlink ref="O18" r:id="rId44"/>
+    <hyperlink ref="L19" r:id="rId45"/>
+    <hyperlink ref="O19" r:id="rId46"/>
+    <hyperlink ref="L20" r:id="rId47"/>
+    <hyperlink ref="O20" r:id="rId48"/>
+    <hyperlink ref="L21" r:id="rId49"/>
+    <hyperlink ref="O21" r:id="rId50"/>
+    <hyperlink ref="L22" r:id="rId51"/>
+    <hyperlink ref="O22" r:id="rId52"/>
+    <hyperlink ref="L23" r:id="rId53"/>
+    <hyperlink ref="O23" r:id="rId54"/>
+    <hyperlink ref="L24" r:id="rId55"/>
+    <hyperlink ref="O24" r:id="rId56"/>
+    <hyperlink ref="P24" r:id="rId57"/>
+    <hyperlink ref="Q24" r:id="rId58"/>
+    <hyperlink ref="R24" r:id="rId59"/>
+    <hyperlink ref="L25" r:id="rId60"/>
+    <hyperlink ref="O25" r:id="rId61"/>
+    <hyperlink ref="P25" r:id="rId62"/>
+    <hyperlink ref="Q25" r:id="rId63"/>
+    <hyperlink ref="L26" r:id="rId64"/>
+    <hyperlink ref="O26" r:id="rId65"/>
+    <hyperlink ref="P26" r:id="rId66"/>
+    <hyperlink ref="L27" r:id="rId67"/>
+    <hyperlink ref="O27" r:id="rId68"/>
+    <hyperlink ref="L28" r:id="rId69"/>
+    <hyperlink ref="O28" r:id="rId70"/>
+    <hyperlink ref="L29" r:id="rId71"/>
+    <hyperlink ref="O29" r:id="rId72"/>
+    <hyperlink ref="P29" r:id="rId73"/>
+    <hyperlink ref="Q29" r:id="rId74"/>
+    <hyperlink ref="L30" r:id="rId75"/>
+    <hyperlink ref="O30" r:id="rId76"/>
+    <hyperlink ref="L31" r:id="rId77"/>
+    <hyperlink ref="O31" r:id="rId78"/>
+    <hyperlink ref="P31" r:id="rId79"/>
+    <hyperlink ref="Q31" r:id="rId80"/>
+    <hyperlink ref="L32" r:id="rId81"/>
+    <hyperlink ref="O32" r:id="rId82"/>
+    <hyperlink ref="P32" r:id="rId83"/>
+    <hyperlink ref="Q32" r:id="rId84"/>
+    <hyperlink ref="L33" r:id="rId85"/>
+    <hyperlink ref="O33" r:id="rId86"/>
+    <hyperlink ref="L34" r:id="rId87"/>
+    <hyperlink ref="O34" r:id="rId88"/>
+    <hyperlink ref="P34" r:id="rId89"/>
+    <hyperlink ref="Q34" r:id="rId90"/>
+    <hyperlink ref="R34" r:id="rId91"/>
+    <hyperlink ref="S34" r:id="rId92"/>
+    <hyperlink ref="T34" r:id="rId93"/>
+    <hyperlink ref="U34" r:id="rId94"/>
+    <hyperlink ref="L35" r:id="rId95"/>
+    <hyperlink ref="O35" r:id="rId96"/>
+    <hyperlink ref="P35" r:id="rId97"/>
+    <hyperlink ref="L36" r:id="rId98"/>
+    <hyperlink ref="O36" r:id="rId99"/>
+    <hyperlink ref="L37" r:id="rId100"/>
+    <hyperlink ref="O37" r:id="rId101"/>
+    <hyperlink ref="P37" r:id="rId102"/>
+    <hyperlink ref="Q37" r:id="rId103"/>
+    <hyperlink ref="L38" r:id="rId104"/>
+    <hyperlink ref="O38" r:id="rId105"/>
+    <hyperlink ref="L39" r:id="rId106"/>
+    <hyperlink ref="O39" r:id="rId107"/>
+    <hyperlink ref="L40" r:id="rId108"/>
+    <hyperlink ref="O40" r:id="rId109"/>
+    <hyperlink ref="L41" r:id="rId110"/>
+    <hyperlink ref="O41" r:id="rId111"/>
+    <hyperlink ref="L42" r:id="rId112"/>
+    <hyperlink ref="O42" r:id="rId113"/>
+    <hyperlink ref="P42" r:id="rId114"/>
+    <hyperlink ref="L43" r:id="rId115"/>
+    <hyperlink ref="O43" r:id="rId116"/>
+    <hyperlink ref="L44" r:id="rId117"/>
+    <hyperlink ref="O44" r:id="rId118"/>
+    <hyperlink ref="P44" r:id="rId119"/>
+    <hyperlink ref="Q44" r:id="rId120"/>
+    <hyperlink ref="R44" r:id="rId121"/>
+    <hyperlink ref="S44" r:id="rId122"/>
+    <hyperlink ref="L45" r:id="rId123"/>
+    <hyperlink ref="O45" r:id="rId124"/>
+    <hyperlink ref="L46" r:id="rId125"/>
+    <hyperlink ref="O46" r:id="rId126"/>
+    <hyperlink ref="P46" r:id="rId127"/>
+    <hyperlink ref="L47" r:id="rId128"/>
+    <hyperlink ref="O47" r:id="rId129"/>
+    <hyperlink ref="L48" r:id="rId130"/>
+    <hyperlink ref="O48" r:id="rId131"/>
+    <hyperlink ref="L49" r:id="rId132"/>
+    <hyperlink ref="O49" r:id="rId133"/>
+    <hyperlink ref="L50" r:id="rId134"/>
+    <hyperlink ref="O50" r:id="rId135"/>
+    <hyperlink ref="P50" r:id="rId136"/>
+    <hyperlink ref="Q50" r:id="rId137"/>
+    <hyperlink ref="R50" r:id="rId138"/>
+    <hyperlink ref="L51" r:id="rId139"/>
+    <hyperlink ref="O51" r:id="rId140"/>
+    <hyperlink ref="L52" r:id="rId141"/>
+    <hyperlink ref="O52" r:id="rId142"/>
+    <hyperlink ref="L53" r:id="rId143"/>
+    <hyperlink ref="O53" r:id="rId144"/>
+    <hyperlink ref="P53" r:id="rId145"/>
+    <hyperlink ref="Q53" r:id="rId146"/>
+    <hyperlink ref="L54" r:id="rId147"/>
+    <hyperlink ref="O54" r:id="rId148"/>
+    <hyperlink ref="P54" r:id="rId149"/>
+    <hyperlink ref="L55" r:id="rId150"/>
+    <hyperlink ref="O55" r:id="rId151"/>
+    <hyperlink ref="L56" r:id="rId152"/>
+    <hyperlink ref="O56" r:id="rId153"/>
+    <hyperlink ref="L57" r:id="rId154"/>
+    <hyperlink ref="O57" r:id="rId155"/>
+    <hyperlink ref="P57" r:id="rId156"/>
+    <hyperlink ref="L58" r:id="rId157"/>
+    <hyperlink ref="O58" r:id="rId158"/>
+    <hyperlink ref="L59" r:id="rId159"/>
+    <hyperlink ref="O59" r:id="rId160"/>
+    <hyperlink ref="L60" r:id="rId161"/>
+    <hyperlink ref="O60" r:id="rId162"/>
+    <hyperlink ref="P60" r:id="rId163"/>
+    <hyperlink ref="Q60" r:id="rId164"/>
+    <hyperlink ref="R60" r:id="rId165"/>
+    <hyperlink ref="S60" r:id="rId166"/>
+    <hyperlink ref="T60" r:id="rId167"/>
+    <hyperlink ref="U60" r:id="rId168"/>
+    <hyperlink ref="L61" r:id="rId169"/>
+    <hyperlink ref="O61" r:id="rId170"/>
+    <hyperlink ref="L62" r:id="rId171"/>
+    <hyperlink ref="O62" r:id="rId172"/>
+    <hyperlink ref="P62" r:id="rId173"/>
+    <hyperlink ref="L63" r:id="rId174"/>
+    <hyperlink ref="O63" r:id="rId175"/>
+    <hyperlink ref="L64" r:id="rId176"/>
+    <hyperlink ref="O64" r:id="rId177"/>
+    <hyperlink ref="P64" r:id="rId178"/>
+    <hyperlink ref="L65" r:id="rId179"/>
+    <hyperlink ref="O65" r:id="rId180"/>
+    <hyperlink ref="L66" r:id="rId181"/>
+    <hyperlink ref="O66" r:id="rId182"/>
+    <hyperlink ref="P66" r:id="rId183"/>
+    <hyperlink ref="Q66" r:id="rId184"/>
+    <hyperlink ref="R66" r:id="rId185"/>
+    <hyperlink ref="L67" r:id="rId186"/>
+    <hyperlink ref="O67" r:id="rId187"/>
+    <hyperlink ref="P67" r:id="rId188"/>
+    <hyperlink ref="L68" r:id="rId189"/>
+    <hyperlink ref="O68" r:id="rId190"/>
+    <hyperlink ref="L69" r:id="rId191"/>
+    <hyperlink ref="O69" r:id="rId192"/>
+    <hyperlink ref="P69" r:id="rId193"/>
+    <hyperlink ref="L70" r:id="rId194"/>
+    <hyperlink ref="O70" r:id="rId195"/>
+    <hyperlink ref="L71" r:id="rId196"/>
+    <hyperlink ref="O71" r:id="rId197"/>
+    <hyperlink ref="P71" r:id="rId198"/>
+    <hyperlink ref="Q71" r:id="rId199"/>
+    <hyperlink ref="R71" r:id="rId200"/>
+    <hyperlink ref="L72" r:id="rId201"/>
+    <hyperlink ref="O72" r:id="rId202"/>
+    <hyperlink ref="P72" r:id="rId203"/>
+    <hyperlink ref="Q72" r:id="rId204"/>
+    <hyperlink ref="L73" r:id="rId205"/>
+    <hyperlink ref="O73" r:id="rId206"/>
+    <hyperlink ref="L74" r:id="rId207"/>
+    <hyperlink ref="O74" r:id="rId208"/>
+    <hyperlink ref="L75" r:id="rId209"/>
+    <hyperlink ref="O75" r:id="rId210"/>
+    <hyperlink ref="L76" r:id="rId211"/>
+    <hyperlink ref="O76" r:id="rId212"/>
+    <hyperlink ref="L77" r:id="rId213"/>
+    <hyperlink ref="O77" r:id="rId214"/>
+    <hyperlink ref="P77" r:id="rId215"/>
+    <hyperlink ref="L78" r:id="rId216"/>
+    <hyperlink ref="O78" r:id="rId217"/>
+    <hyperlink ref="L79" r:id="rId218"/>
+    <hyperlink ref="O79" r:id="rId219"/>
+    <hyperlink ref="L80" r:id="rId220"/>
+    <hyperlink ref="O80" r:id="rId221"/>
+    <hyperlink ref="L81" r:id="rId222"/>
+    <hyperlink ref="O81" r:id="rId223"/>
+    <hyperlink ref="P81" r:id="rId224"/>
+    <hyperlink ref="Q81" r:id="rId225"/>
+    <hyperlink ref="L82" r:id="rId226"/>
+    <hyperlink ref="O82" r:id="rId227"/>
+    <hyperlink ref="P82" r:id="rId228"/>
+    <hyperlink ref="L83" r:id="rId229"/>
+    <hyperlink ref="O83" r:id="rId230"/>
+    <hyperlink ref="P83" r:id="rId231"/>
+    <hyperlink ref="Q83" r:id="rId232"/>
+    <hyperlink ref="R83" r:id="rId233"/>
+    <hyperlink ref="S83" r:id="rId234"/>
+    <hyperlink ref="T83" r:id="rId235"/>
+    <hyperlink ref="L84" r:id="rId236"/>
+    <hyperlink ref="O84" r:id="rId237"/>
+    <hyperlink ref="L85" r:id="rId238"/>
+    <hyperlink ref="O85" r:id="rId239"/>
+    <hyperlink ref="L86" r:id="rId240"/>
+    <hyperlink ref="O86" r:id="rId241"/>
+    <hyperlink ref="L87" r:id="rId242"/>
+    <hyperlink ref="O87" r:id="rId243"/>
+    <hyperlink ref="L88" r:id="rId244"/>
+    <hyperlink ref="O88" r:id="rId245"/>
+    <hyperlink ref="L89" r:id="rId246"/>
+    <hyperlink ref="O89" r:id="rId247"/>
+    <hyperlink ref="L90" r:id="rId248"/>
+    <hyperlink ref="O90" r:id="rId249"/>
+    <hyperlink ref="P90" r:id="rId250"/>
+    <hyperlink ref="L91" r:id="rId251"/>
+    <hyperlink ref="O91" r:id="rId252"/>
+    <hyperlink ref="L92" r:id="rId253"/>
+    <hyperlink ref="O92" r:id="rId254"/>
+    <hyperlink ref="P92" r:id="rId255"/>
+    <hyperlink ref="L93" r:id="rId256"/>
+    <hyperlink ref="O93" r:id="rId257"/>
+    <hyperlink ref="L94" r:id="rId258"/>
+    <hyperlink ref="O94" r:id="rId259"/>
+    <hyperlink ref="P94" r:id="rId260"/>
+    <hyperlink ref="L95" r:id="rId261"/>
+    <hyperlink ref="O95" r:id="rId262"/>
+    <hyperlink ref="L96" r:id="rId263"/>
+    <hyperlink ref="O96" r:id="rId264"/>
+    <hyperlink ref="L97" r:id="rId265"/>
+    <hyperlink ref="O97" r:id="rId266"/>
+    <hyperlink ref="L98" r:id="rId267"/>
+    <hyperlink ref="O98" r:id="rId268"/>
+    <hyperlink ref="L99" r:id="rId269"/>
+    <hyperlink ref="O99" r:id="rId270"/>
+    <hyperlink ref="P99" r:id="rId271"/>
+    <hyperlink ref="L100" r:id="rId272"/>
+    <hyperlink ref="O100" r:id="rId273"/>
+    <hyperlink ref="L101" r:id="rId274"/>
+    <hyperlink ref="O101" r:id="rId275"/>
+    <hyperlink ref="L102" r:id="rId276"/>
+    <hyperlink ref="O102" r:id="rId277"/>
+    <hyperlink ref="P102" r:id="rId278"/>
+    <hyperlink ref="Q102" r:id="rId279"/>
+    <hyperlink ref="R102" r:id="rId280"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
